--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E459"/>
+  <dimension ref="A1:E467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11909,6 +11909,206 @@
       <c r="E459" t="inlineStr">
         <is>
           <t>202509211655</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>000089</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>深圳机场</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>中国稀土</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>513400</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>道琼斯ETF</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>202509211902</t>
         </is>
       </c>
     </row>
@@ -11923,7 +12123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E435"/>
+  <dimension ref="A1:E445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22805,6 +23005,256 @@
       <c r="E435" t="inlineStr">
         <is>
           <t>202509211655</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>华纬科技</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>002074</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>600580</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>601878</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>浙商证券</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>HK01810</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>小米集团-W</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>202509211902</t>
         </is>
       </c>
     </row>
@@ -22819,7 +23269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G715"/>
+  <dimension ref="A1:G727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46348,6 +46798,396 @@
         </is>
       </c>
     </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>000089</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>深圳机场</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E716" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="F716" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E717" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="F717" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E718" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F718" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>中国稀土</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E719" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="F719" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E720" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="F720" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr"/>
+      <c r="E721" t="inlineStr"/>
+      <c r="F721" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E722" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="F722" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E723" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="F723" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E724" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F724" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>513400</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>道琼斯ETF</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E725" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F725" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E726" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F726" t="n">
+        <v>1</v>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E727" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F727" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>202509211902</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E458"/>
+  <dimension ref="A1:E466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11884,6 +11884,206 @@
       <c r="E458" t="inlineStr">
         <is>
           <t>202509212022</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>000089</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>深圳机场</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>中国稀土</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>513400</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>道琼斯ETF</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
         </is>
       </c>
     </row>
@@ -11898,7 +12098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E434"/>
+  <dimension ref="A1:E444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22755,6 +22955,256 @@
       <c r="E434" t="inlineStr">
         <is>
           <t>202509212022</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>华纬科技</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>002074</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>600580</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>601878</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>浙商证券</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>HK01810</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>小米集团-W</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
         </is>
       </c>
     </row>
@@ -22769,7 +23219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G714"/>
+  <dimension ref="A1:G726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46337,6 +46787,396 @@
         </is>
       </c>
     </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>000089</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>深圳机场</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E715" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="F715" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E716" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="F716" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E717" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F717" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>中国稀土</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E718" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="F718" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E719" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="F719" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr"/>
+      <c r="E720" t="inlineStr"/>
+      <c r="F720" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E721" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="F721" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E722" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="F722" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E723" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F723" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>513400</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>道琼斯ETF</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E724" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F724" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E725" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F725" t="n">
+        <v>1</v>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E726" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F726" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E466"/>
+  <dimension ref="A1:E474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12084,6 +12084,206 @@
       <c r="E466" t="inlineStr">
         <is>
           <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>000089</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>深圳机场</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>中国稀土</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D470" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>513400</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>道琼斯ETF</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>202509212305</t>
         </is>
       </c>
     </row>
@@ -12098,7 +12298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E444"/>
+  <dimension ref="A1:E454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23205,6 +23405,256 @@
       <c r="E444" t="inlineStr">
         <is>
           <t>2025-09-21 22:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>华纬科技</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>002074</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>600580</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>601878</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>浙商证券</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>HK01810</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>小米集团-W</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>202509212305</t>
         </is>
       </c>
     </row>
@@ -23219,7 +23669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G726"/>
+  <dimension ref="A1:G738"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47177,6 +47627,396 @@
         </is>
       </c>
     </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>000089</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>深圳机场</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E727" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="F727" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E728" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="F728" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E729" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F729" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>中国稀土</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E730" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="F730" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E731" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="F731" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr"/>
+      <c r="E732" t="inlineStr"/>
+      <c r="F732" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E733" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="F733" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E734" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="F734" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E735" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F735" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G735" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>513400</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>道琼斯ETF</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E736" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F736" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="G736" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E737" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F737" t="n">
+        <v>1</v>
+      </c>
+      <c r="G737" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E738" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F738" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G738" t="inlineStr">
+        <is>
+          <t>202509212305</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E474"/>
+  <dimension ref="A1:E482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12284,6 +12284,206 @@
       <c r="E474" t="inlineStr">
         <is>
           <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>000089</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>深圳机场</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>中国稀土</t>
+        </is>
+      </c>
+      <c r="D477" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>513400</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>道琼斯ETF</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D482" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>202509220007</t>
         </is>
       </c>
     </row>
@@ -12298,7 +12498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E454"/>
+  <dimension ref="A1:E464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23655,6 +23855,256 @@
       <c r="E454" t="inlineStr">
         <is>
           <t>202509212305</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>华纬科技</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>002074</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>600580</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>601878</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>浙商证券</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>HK01810</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>小米集团-W</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>202509220007</t>
         </is>
       </c>
     </row>
@@ -23669,7 +24119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G738"/>
+  <dimension ref="A1:G750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48017,6 +48467,402 @@
         </is>
       </c>
     </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>000089</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>深圳机场</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E739" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="F739" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="G739" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E740" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="F740" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G740" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E741" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F741" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="G741" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>中国稀土</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E742" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="F742" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G742" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E743" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="F743" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="G743" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E744" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="F744" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G744" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E745" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="F745" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="G745" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E746" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="F746" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="G746" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E747" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F747" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G747" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>513400</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>道琼斯ETF</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E748" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F748" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="G748" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E749" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F749" t="n">
+        <v>1</v>
+      </c>
+      <c r="G749" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E750" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F750" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G750" t="inlineStr">
+        <is>
+          <t>202509220007</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E482"/>
+  <dimension ref="A1:E492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12484,6 +12484,256 @@
       <c r="E482" t="inlineStr">
         <is>
           <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>000089</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>深圳机场</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>中国稀土</t>
+        </is>
+      </c>
+      <c r="D485" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D486" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>513400</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>道琼斯ETF</t>
+        </is>
+      </c>
+      <c r="D487" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D488" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D489" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D490" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>603391</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>力聚热能</t>
+        </is>
+      </c>
+      <c r="D491" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>三七互娱</t>
+        </is>
+      </c>
+      <c r="D492" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>202509220010</t>
         </is>
       </c>
     </row>
@@ -12498,7 +12748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E464"/>
+  <dimension ref="A1:E477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24105,6 +24355,331 @@
       <c r="E464" t="inlineStr">
         <is>
           <t>202509220007</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>华纬科技</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>002074</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D470" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>600580</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>601878</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>浙商证券</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>HK01810</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>小米集团-W</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>601598</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>中国外运</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>27.01</v>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>603301</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>振德医疗</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>000014</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>沙河股份</t>
+        </is>
+      </c>
+      <c r="D477" t="n">
+        <v>1</v>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>202509220010</t>
         </is>
       </c>
     </row>
@@ -24119,7 +24694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G750"/>
+  <dimension ref="A1:G767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48863,6 +49438,567 @@
         </is>
       </c>
     </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>000089</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>深圳机场</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E751" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="F751" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="G751" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E752" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="F752" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G752" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E753" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F753" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="G753" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>中国稀土</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E754" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="F754" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G754" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E755" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="F755" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="G755" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E756" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="F756" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G756" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E757" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="F757" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="G757" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E758" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="F758" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="G758" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E759" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F759" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G759" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>513400</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>道琼斯ETF</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E760" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F760" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="G760" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E761" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F761" t="n">
+        <v>1</v>
+      </c>
+      <c r="G761" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E762" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F762" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G762" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>603391</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>力聚热能</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E763" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="F763" t="n">
+        <v>13</v>
+      </c>
+      <c r="G763" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>三七互娱</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E764" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="F764" t="n">
+        <v>7</v>
+      </c>
+      <c r="G764" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>601598</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>中国外运</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E765" t="n">
+        <v>27.01</v>
+      </c>
+      <c r="F765" t="n">
+        <v>13</v>
+      </c>
+      <c r="G765" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>603301</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>振德医疗</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E766" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="F766" t="n">
+        <v>4</v>
+      </c>
+      <c r="G766" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>000014</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>沙河股份</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E767" t="n">
+        <v>1</v>
+      </c>
+      <c r="F767" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G767" t="inlineStr">
+        <is>
+          <t>202509220010</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -8782,7 +8782,7 @@
         <v>5.03</v>
       </c>
       <c r="E493" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="494">
@@ -8799,7 +8799,7 @@
         <v>9.71</v>
       </c>
       <c r="E494" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="495">
@@ -8816,7 +8816,7 @@
         <v>9.21</v>
       </c>
       <c r="E495" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="496">
@@ -8833,7 +8833,7 @@
         <v>5.26</v>
       </c>
       <c r="E496" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="497">
@@ -8850,7 +8850,7 @@
         <v>5.11</v>
       </c>
       <c r="E497" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="498">
@@ -8867,7 +8867,7 @@
         <v>2.06</v>
       </c>
       <c r="E498" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="499">
@@ -8884,7 +8884,7 @@
         <v>1.92</v>
       </c>
       <c r="E499" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="500">
@@ -8901,7 +8901,7 @@
         <v>0.98</v>
       </c>
       <c r="E500" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="501">
@@ -8918,7 +8918,7 @@
         <v>26</v>
       </c>
       <c r="E501" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="502">
@@ -8935,7 +8935,7 @@
         <v>14</v>
       </c>
       <c r="E502" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
   </sheetData>
@@ -17076,7 +17076,7 @@
         <v>4.91</v>
       </c>
       <c r="E478" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="479">
@@ -17093,7 +17093,7 @@
         <v>5.22</v>
       </c>
       <c r="E479" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="480">
@@ -17110,7 +17110,7 @@
         <v>4.75</v>
       </c>
       <c r="E480" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="481">
@@ -17127,7 +17127,7 @@
         <v>6.11</v>
       </c>
       <c r="E481" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="482">
@@ -17144,7 +17144,7 @@
         <v>5.17</v>
       </c>
       <c r="E482" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="483">
@@ -17161,7 +17161,7 @@
         <v>0.97</v>
       </c>
       <c r="E483" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="484">
@@ -17178,7 +17178,7 @@
         <v>5.69</v>
       </c>
       <c r="E484" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="485">
@@ -17195,7 +17195,7 @@
         <v>4.89</v>
       </c>
       <c r="E485" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="486">
@@ -17212,7 +17212,7 @@
         <v>0.03</v>
       </c>
       <c r="E486" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="487">
@@ -17229,7 +17229,7 @@
         <v>1.02</v>
       </c>
       <c r="E487" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="488">
@@ -17246,7 +17246,7 @@
         <v>27.01</v>
       </c>
       <c r="E488" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="489">
@@ -17263,7 +17263,7 @@
         <v>9.7</v>
       </c>
       <c r="E489" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="490">
@@ -17280,7 +17280,7 @@
         <v>1.1</v>
       </c>
       <c r="E490" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
   </sheetData>
@@ -34959,7 +34959,7 @@
         <v>5.04</v>
       </c>
       <c r="G768" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="769">
@@ -34982,7 +34982,7 @@
         <v>1.01</v>
       </c>
       <c r="G769" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="770">
@@ -35005,7 +35005,7 @@
         <v>5.05</v>
       </c>
       <c r="G770" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="771">
@@ -35028,7 +35028,7 @@
         <v>9.6</v>
       </c>
       <c r="G771" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="772">
@@ -35051,7 +35051,7 @@
         <v>6.85</v>
       </c>
       <c r="G772" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="773">
@@ -35074,7 +35074,7 @@
         <v>1.01</v>
       </c>
       <c r="G773" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="774">
@@ -35097,7 +35097,7 @@
         <v>5.38</v>
       </c>
       <c r="G774" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="775">
@@ -35120,7 +35120,7 @@
         <v>3.14</v>
       </c>
       <c r="G775" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="776">
@@ -35143,7 +35143,7 @@
         <v>0.98</v>
       </c>
       <c r="G776" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="777">
@@ -35166,7 +35166,7 @@
         <v>5.05</v>
       </c>
       <c r="G777" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="778">
@@ -35189,7 +35189,7 @@
         <v>1</v>
       </c>
       <c r="G778" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="779">
@@ -35212,7 +35212,7 @@
         <v>0.98</v>
       </c>
       <c r="G779" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="780">
@@ -35235,7 +35235,7 @@
         <v>13</v>
       </c>
       <c r="G780" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="781">
@@ -35258,7 +35258,7 @@
         <v>7</v>
       </c>
       <c r="G781" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="782">
@@ -35281,7 +35281,7 @@
         <v>12</v>
       </c>
       <c r="G782" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="783">
@@ -35304,7 +35304,7 @@
         <v>3</v>
       </c>
       <c r="G783" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
     <row r="784">
@@ -35327,7 +35327,7 @@
         <v>1.2</v>
       </c>
       <c r="G784" t="str">
-        <v>202509220014</v>
+        <v>202509220018</v>
       </c>
     </row>
   </sheetData>

--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -8782,7 +8782,7 @@
         <v>5.03</v>
       </c>
       <c r="E493" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="494">
@@ -8799,7 +8799,7 @@
         <v>9.71</v>
       </c>
       <c r="E494" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="495">
@@ -8816,7 +8816,7 @@
         <v>9.21</v>
       </c>
       <c r="E495" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="496">
@@ -8833,7 +8833,7 @@
         <v>5.26</v>
       </c>
       <c r="E496" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="497">
@@ -8850,7 +8850,7 @@
         <v>5.11</v>
       </c>
       <c r="E497" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="498">
@@ -8867,7 +8867,7 @@
         <v>2.06</v>
       </c>
       <c r="E498" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="499">
@@ -8884,7 +8884,7 @@
         <v>1.92</v>
       </c>
       <c r="E499" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="500">
@@ -8901,7 +8901,7 @@
         <v>0.98</v>
       </c>
       <c r="E500" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="501">
@@ -8918,7 +8918,7 @@
         <v>26</v>
       </c>
       <c r="E501" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="502">
@@ -8935,7 +8935,7 @@
         <v>14</v>
       </c>
       <c r="E502" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
   </sheetData>
@@ -17076,7 +17076,7 @@
         <v>4.91</v>
       </c>
       <c r="E478" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="479">
@@ -17093,7 +17093,7 @@
         <v>5.22</v>
       </c>
       <c r="E479" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="480">
@@ -17110,7 +17110,7 @@
         <v>4.75</v>
       </c>
       <c r="E480" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="481">
@@ -17127,7 +17127,7 @@
         <v>6.11</v>
       </c>
       <c r="E481" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="482">
@@ -17144,7 +17144,7 @@
         <v>5.17</v>
       </c>
       <c r="E482" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="483">
@@ -17161,7 +17161,7 @@
         <v>0.97</v>
       </c>
       <c r="E483" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="484">
@@ -17178,7 +17178,7 @@
         <v>5.69</v>
       </c>
       <c r="E484" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="485">
@@ -17195,7 +17195,7 @@
         <v>4.89</v>
       </c>
       <c r="E485" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="486">
@@ -17212,7 +17212,7 @@
         <v>0.03</v>
       </c>
       <c r="E486" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="487">
@@ -17229,7 +17229,7 @@
         <v>1.02</v>
       </c>
       <c r="E487" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="488">
@@ -17246,7 +17246,7 @@
         <v>27.01</v>
       </c>
       <c r="E488" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="489">
@@ -17263,7 +17263,7 @@
         <v>9.7</v>
       </c>
       <c r="E489" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="490">
@@ -17280,7 +17280,7 @@
         <v>1.1</v>
       </c>
       <c r="E490" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
   </sheetData>
@@ -34959,7 +34959,7 @@
         <v>5.04</v>
       </c>
       <c r="G768" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="769">
@@ -34982,7 +34982,7 @@
         <v>1.01</v>
       </c>
       <c r="G769" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="770">
@@ -35005,7 +35005,7 @@
         <v>5.05</v>
       </c>
       <c r="G770" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="771">
@@ -35028,7 +35028,7 @@
         <v>9.6</v>
       </c>
       <c r="G771" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="772">
@@ -35051,7 +35051,7 @@
         <v>6.85</v>
       </c>
       <c r="G772" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="773">
@@ -35074,7 +35074,7 @@
         <v>1.01</v>
       </c>
       <c r="G773" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="774">
@@ -35097,7 +35097,7 @@
         <v>5.38</v>
       </c>
       <c r="G774" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="775">
@@ -35120,7 +35120,7 @@
         <v>3.14</v>
       </c>
       <c r="G775" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="776">
@@ -35143,7 +35143,7 @@
         <v>0.98</v>
       </c>
       <c r="G776" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="777">
@@ -35166,7 +35166,7 @@
         <v>5.05</v>
       </c>
       <c r="G777" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="778">
@@ -35189,7 +35189,7 @@
         <v>1</v>
       </c>
       <c r="G778" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="779">
@@ -35212,7 +35212,7 @@
         <v>0.98</v>
       </c>
       <c r="G779" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="780">
@@ -35235,7 +35235,7 @@
         <v>13</v>
       </c>
       <c r="G780" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="781">
@@ -35258,7 +35258,7 @@
         <v>7</v>
       </c>
       <c r="G781" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="782">
@@ -35281,7 +35281,7 @@
         <v>12</v>
       </c>
       <c r="G782" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="783">
@@ -35304,7 +35304,7 @@
         <v>3</v>
       </c>
       <c r="G783" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
     <row r="784">
@@ -35327,7 +35327,7 @@
         <v>1.2</v>
       </c>
       <c r="G784" t="str">
-        <v>202509220018</v>
+        <v>202509220025</v>
       </c>
     </row>
   </sheetData>

--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -8782,7 +8782,7 @@
         <v>5.03</v>
       </c>
       <c r="E493" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="494">
@@ -8799,7 +8799,7 @@
         <v>9.71</v>
       </c>
       <c r="E494" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="495">
@@ -8816,7 +8816,7 @@
         <v>9.21</v>
       </c>
       <c r="E495" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="496">
@@ -8833,7 +8833,7 @@
         <v>5.26</v>
       </c>
       <c r="E496" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="497">
@@ -8850,7 +8850,7 @@
         <v>5.11</v>
       </c>
       <c r="E497" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="498">
@@ -8867,7 +8867,7 @@
         <v>2.06</v>
       </c>
       <c r="E498" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="499">
@@ -8884,7 +8884,7 @@
         <v>1.92</v>
       </c>
       <c r="E499" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="500">
@@ -8901,7 +8901,7 @@
         <v>0.98</v>
       </c>
       <c r="E500" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="501">
@@ -8918,7 +8918,7 @@
         <v>26</v>
       </c>
       <c r="E501" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="502">
@@ -8935,7 +8935,7 @@
         <v>14</v>
       </c>
       <c r="E502" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
   </sheetData>
@@ -17076,7 +17076,7 @@
         <v>4.91</v>
       </c>
       <c r="E478" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="479">
@@ -17093,7 +17093,7 @@
         <v>5.22</v>
       </c>
       <c r="E479" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="480">
@@ -17110,7 +17110,7 @@
         <v>4.75</v>
       </c>
       <c r="E480" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="481">
@@ -17127,7 +17127,7 @@
         <v>6.11</v>
       </c>
       <c r="E481" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="482">
@@ -17144,7 +17144,7 @@
         <v>5.17</v>
       </c>
       <c r="E482" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="483">
@@ -17161,7 +17161,7 @@
         <v>0.97</v>
       </c>
       <c r="E483" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="484">
@@ -17178,7 +17178,7 @@
         <v>5.69</v>
       </c>
       <c r="E484" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="485">
@@ -17195,7 +17195,7 @@
         <v>4.89</v>
       </c>
       <c r="E485" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="486">
@@ -17212,7 +17212,7 @@
         <v>0.03</v>
       </c>
       <c r="E486" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="487">
@@ -17229,7 +17229,7 @@
         <v>1.02</v>
       </c>
       <c r="E487" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="488">
@@ -17246,7 +17246,7 @@
         <v>27.01</v>
       </c>
       <c r="E488" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="489">
@@ -17263,7 +17263,7 @@
         <v>9.7</v>
       </c>
       <c r="E489" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="490">
@@ -17280,7 +17280,7 @@
         <v>1.1</v>
       </c>
       <c r="E490" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
   </sheetData>
@@ -34959,7 +34959,7 @@
         <v>5.04</v>
       </c>
       <c r="G768" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="769">
@@ -34982,7 +34982,7 @@
         <v>1.01</v>
       </c>
       <c r="G769" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="770">
@@ -35005,7 +35005,7 @@
         <v>5.05</v>
       </c>
       <c r="G770" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="771">
@@ -35028,7 +35028,7 @@
         <v>9.6</v>
       </c>
       <c r="G771" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="772">
@@ -35051,7 +35051,7 @@
         <v>6.85</v>
       </c>
       <c r="G772" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="773">
@@ -35074,7 +35074,7 @@
         <v>1.01</v>
       </c>
       <c r="G773" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="774">
@@ -35097,7 +35097,7 @@
         <v>5.38</v>
       </c>
       <c r="G774" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="775">
@@ -35120,7 +35120,7 @@
         <v>3.14</v>
       </c>
       <c r="G775" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="776">
@@ -35143,7 +35143,7 @@
         <v>0.98</v>
       </c>
       <c r="G776" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="777">
@@ -35166,7 +35166,7 @@
         <v>5.05</v>
       </c>
       <c r="G777" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="778">
@@ -35189,7 +35189,7 @@
         <v>1</v>
       </c>
       <c r="G778" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="779">
@@ -35212,7 +35212,7 @@
         <v>0.98</v>
       </c>
       <c r="G779" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="780">
@@ -35235,7 +35235,7 @@
         <v>13</v>
       </c>
       <c r="G780" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="781">
@@ -35258,7 +35258,7 @@
         <v>7</v>
       </c>
       <c r="G781" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="782">
@@ -35281,7 +35281,7 @@
         <v>12</v>
       </c>
       <c r="G782" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="783">
@@ -35304,7 +35304,7 @@
         <v>3</v>
       </c>
       <c r="G783" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
     <row r="784">
@@ -35327,7 +35327,7 @@
         <v>1.2</v>
       </c>
       <c r="G784" t="str">
-        <v>202509220025</v>
+        <v>202509220028</v>
       </c>
     </row>
   </sheetData>

--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E502"/>
+  <dimension ref="A1:E450"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -8054,901 +8054,16 @@
         <v>202509190619</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B451" t="str">
-        <v>000089</v>
-      </c>
-      <c r="C451" t="str">
-        <v>深圳机场</v>
-      </c>
-      <c r="D451">
-        <v>5.03</v>
-      </c>
-      <c r="E451" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B452" t="str">
-        <v>000333</v>
-      </c>
-      <c r="C452" t="str">
-        <v>美的集团</v>
-      </c>
-      <c r="D452">
-        <v>9.71</v>
-      </c>
-      <c r="E452" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B453" t="str">
-        <v>000831</v>
-      </c>
-      <c r="C453" t="str">
-        <v>中国稀土</v>
-      </c>
-      <c r="D453">
-        <v>9.21</v>
-      </c>
-      <c r="E453" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B454" t="str">
-        <v>510300</v>
-      </c>
-      <c r="C454" t="str">
-        <v>沪深300ETF</v>
-      </c>
-      <c r="D454">
-        <v>5.26</v>
-      </c>
-      <c r="E454" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B455" t="str">
-        <v>513400</v>
-      </c>
-      <c r="C455" t="str">
-        <v>道琼斯ETF</v>
-      </c>
-      <c r="D455">
-        <v>5.11</v>
-      </c>
-      <c r="E455" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B456" t="str">
-        <v>518880</v>
-      </c>
-      <c r="C456" t="str">
-        <v>黄金ETF</v>
-      </c>
-      <c r="D456">
-        <v>2.06</v>
-      </c>
-      <c r="E456" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B457" t="str">
-        <v>600085</v>
-      </c>
-      <c r="C457" t="str">
-        <v>同仁堂</v>
-      </c>
-      <c r="D457">
-        <v>1.92</v>
-      </c>
-      <c r="E457" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B458" t="str">
-        <v>601899</v>
-      </c>
-      <c r="C458" t="str">
-        <v>紫金矿业</v>
-      </c>
-      <c r="D458">
-        <v>0.98</v>
-      </c>
-      <c r="E458" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B459" t="str">
-        <v>000089</v>
-      </c>
-      <c r="C459" t="str">
-        <v>深圳机场</v>
-      </c>
-      <c r="D459">
-        <v>5.03</v>
-      </c>
-      <c r="E459" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B460" t="str">
-        <v>000333</v>
-      </c>
-      <c r="C460" t="str">
-        <v>美的集团</v>
-      </c>
-      <c r="D460">
-        <v>9.71</v>
-      </c>
-      <c r="E460" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B461" t="str">
-        <v>000831</v>
-      </c>
-      <c r="C461" t="str">
-        <v>中国稀土</v>
-      </c>
-      <c r="D461">
-        <v>9.21</v>
-      </c>
-      <c r="E461" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B462" t="str">
-        <v>510300</v>
-      </c>
-      <c r="C462" t="str">
-        <v>沪深300ETF</v>
-      </c>
-      <c r="D462">
-        <v>5.26</v>
-      </c>
-      <c r="E462" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B463" t="str">
-        <v>513400</v>
-      </c>
-      <c r="C463" t="str">
-        <v>道琼斯ETF</v>
-      </c>
-      <c r="D463">
-        <v>5.11</v>
-      </c>
-      <c r="E463" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B464" t="str">
-        <v>518880</v>
-      </c>
-      <c r="C464" t="str">
-        <v>黄金ETF</v>
-      </c>
-      <c r="D464">
-        <v>2.06</v>
-      </c>
-      <c r="E464" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B465" t="str">
-        <v>600085</v>
-      </c>
-      <c r="C465" t="str">
-        <v>同仁堂</v>
-      </c>
-      <c r="D465">
-        <v>1.92</v>
-      </c>
-      <c r="E465" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B466" t="str">
-        <v>601899</v>
-      </c>
-      <c r="C466" t="str">
-        <v>紫金矿业</v>
-      </c>
-      <c r="D466">
-        <v>0.98</v>
-      </c>
-      <c r="E466" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B467" t="str">
-        <v>000089</v>
-      </c>
-      <c r="C467" t="str">
-        <v>深圳机场</v>
-      </c>
-      <c r="D467">
-        <v>5.03</v>
-      </c>
-      <c r="E467" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B468" t="str">
-        <v>000333</v>
-      </c>
-      <c r="C468" t="str">
-        <v>美的集团</v>
-      </c>
-      <c r="D468">
-        <v>9.71</v>
-      </c>
-      <c r="E468" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B469" t="str">
-        <v>000831</v>
-      </c>
-      <c r="C469" t="str">
-        <v>中国稀土</v>
-      </c>
-      <c r="D469">
-        <v>9.21</v>
-      </c>
-      <c r="E469" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B470" t="str">
-        <v>510300</v>
-      </c>
-      <c r="C470" t="str">
-        <v>沪深300ETF</v>
-      </c>
-      <c r="D470">
-        <v>5.26</v>
-      </c>
-      <c r="E470" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B471" t="str">
-        <v>513400</v>
-      </c>
-      <c r="C471" t="str">
-        <v>道琼斯ETF</v>
-      </c>
-      <c r="D471">
-        <v>5.11</v>
-      </c>
-      <c r="E471" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B472" t="str">
-        <v>518880</v>
-      </c>
-      <c r="C472" t="str">
-        <v>黄金ETF</v>
-      </c>
-      <c r="D472">
-        <v>2.06</v>
-      </c>
-      <c r="E472" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B473" t="str">
-        <v>600085</v>
-      </c>
-      <c r="C473" t="str">
-        <v>同仁堂</v>
-      </c>
-      <c r="D473">
-        <v>1.92</v>
-      </c>
-      <c r="E473" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B474" t="str">
-        <v>601899</v>
-      </c>
-      <c r="C474" t="str">
-        <v>紫金矿业</v>
-      </c>
-      <c r="D474">
-        <v>0.98</v>
-      </c>
-      <c r="E474" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B475" t="str">
-        <v>000089</v>
-      </c>
-      <c r="C475" t="str">
-        <v>深圳机场</v>
-      </c>
-      <c r="D475">
-        <v>5.03</v>
-      </c>
-      <c r="E475" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B476" t="str">
-        <v>000333</v>
-      </c>
-      <c r="C476" t="str">
-        <v>美的集团</v>
-      </c>
-      <c r="D476">
-        <v>9.71</v>
-      </c>
-      <c r="E476" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B477" t="str">
-        <v>000831</v>
-      </c>
-      <c r="C477" t="str">
-        <v>中国稀土</v>
-      </c>
-      <c r="D477">
-        <v>9.21</v>
-      </c>
-      <c r="E477" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B478" t="str">
-        <v>510300</v>
-      </c>
-      <c r="C478" t="str">
-        <v>沪深300ETF</v>
-      </c>
-      <c r="D478">
-        <v>5.26</v>
-      </c>
-      <c r="E478" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B479" t="str">
-        <v>513400</v>
-      </c>
-      <c r="C479" t="str">
-        <v>道琼斯ETF</v>
-      </c>
-      <c r="D479">
-        <v>5.11</v>
-      </c>
-      <c r="E479" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B480" t="str">
-        <v>518880</v>
-      </c>
-      <c r="C480" t="str">
-        <v>黄金ETF</v>
-      </c>
-      <c r="D480">
-        <v>2.06</v>
-      </c>
-      <c r="E480" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B481" t="str">
-        <v>600085</v>
-      </c>
-      <c r="C481" t="str">
-        <v>同仁堂</v>
-      </c>
-      <c r="D481">
-        <v>1.92</v>
-      </c>
-      <c r="E481" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B482" t="str">
-        <v>601899</v>
-      </c>
-      <c r="C482" t="str">
-        <v>紫金矿业</v>
-      </c>
-      <c r="D482">
-        <v>0.98</v>
-      </c>
-      <c r="E482" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B483" t="str">
-        <v>000089</v>
-      </c>
-      <c r="C483" t="str">
-        <v>深圳机场</v>
-      </c>
-      <c r="D483">
-        <v>5.03</v>
-      </c>
-      <c r="E483" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B484" t="str">
-        <v>000333</v>
-      </c>
-      <c r="C484" t="str">
-        <v>美的集团</v>
-      </c>
-      <c r="D484">
-        <v>9.71</v>
-      </c>
-      <c r="E484" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B485" t="str">
-        <v>000831</v>
-      </c>
-      <c r="C485" t="str">
-        <v>中国稀土</v>
-      </c>
-      <c r="D485">
-        <v>9.21</v>
-      </c>
-      <c r="E485" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B486" t="str">
-        <v>510300</v>
-      </c>
-      <c r="C486" t="str">
-        <v>沪深300ETF</v>
-      </c>
-      <c r="D486">
-        <v>5.26</v>
-      </c>
-      <c r="E486" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B487" t="str">
-        <v>513400</v>
-      </c>
-      <c r="C487" t="str">
-        <v>道琼斯ETF</v>
-      </c>
-      <c r="D487">
-        <v>5.11</v>
-      </c>
-      <c r="E487" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B488" t="str">
-        <v>518880</v>
-      </c>
-      <c r="C488" t="str">
-        <v>黄金ETF</v>
-      </c>
-      <c r="D488">
-        <v>2.06</v>
-      </c>
-      <c r="E488" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B489" t="str">
-        <v>600085</v>
-      </c>
-      <c r="C489" t="str">
-        <v>同仁堂</v>
-      </c>
-      <c r="D489">
-        <v>1.92</v>
-      </c>
-      <c r="E489" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B490" t="str">
-        <v>601899</v>
-      </c>
-      <c r="C490" t="str">
-        <v>紫金矿业</v>
-      </c>
-      <c r="D490">
-        <v>0.98</v>
-      </c>
-      <c r="E490" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B491" t="str">
-        <v>603391</v>
-      </c>
-      <c r="C491" t="str">
-        <v>力聚热能</v>
-      </c>
-      <c r="D491">
-        <v>26.47</v>
-      </c>
-      <c r="E491" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B492" t="str">
-        <v>002555</v>
-      </c>
-      <c r="C492" t="str">
-        <v>三七互娱</v>
-      </c>
-      <c r="D492">
-        <v>14.71</v>
-      </c>
-      <c r="E492" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B493" t="str">
-        <v>000089</v>
-      </c>
-      <c r="C493" t="str">
-        <v>深圳机场</v>
-      </c>
-      <c r="D493">
-        <v>5.03</v>
-      </c>
-      <c r="E493" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B494" t="str">
-        <v>000333</v>
-      </c>
-      <c r="C494" t="str">
-        <v>美的集团</v>
-      </c>
-      <c r="D494">
-        <v>9.71</v>
-      </c>
-      <c r="E494" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B495" t="str">
-        <v>000831</v>
-      </c>
-      <c r="C495" t="str">
-        <v>中国稀土</v>
-      </c>
-      <c r="D495">
-        <v>9.21</v>
-      </c>
-      <c r="E495" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B496" t="str">
-        <v>510300</v>
-      </c>
-      <c r="C496" t="str">
-        <v>沪深300ETF</v>
-      </c>
-      <c r="D496">
-        <v>5.26</v>
-      </c>
-      <c r="E496" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B497" t="str">
-        <v>513400</v>
-      </c>
-      <c r="C497" t="str">
-        <v>道琼斯ETF</v>
-      </c>
-      <c r="D497">
-        <v>5.11</v>
-      </c>
-      <c r="E497" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B498" t="str">
-        <v>518880</v>
-      </c>
-      <c r="C498" t="str">
-        <v>黄金ETF</v>
-      </c>
-      <c r="D498">
-        <v>2.06</v>
-      </c>
-      <c r="E498" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B499" t="str">
-        <v>600085</v>
-      </c>
-      <c r="C499" t="str">
-        <v>同仁堂</v>
-      </c>
-      <c r="D499">
-        <v>1.92</v>
-      </c>
-      <c r="E499" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B500" t="str">
-        <v>601899</v>
-      </c>
-      <c r="C500" t="str">
-        <v>紫金矿业</v>
-      </c>
-      <c r="D500">
-        <v>0.98</v>
-      </c>
-      <c r="E500" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B501" t="str">
-        <v>603391</v>
-      </c>
-      <c r="C501" t="str">
-        <v>力聚热能</v>
-      </c>
-      <c r="D501">
-        <v>26</v>
-      </c>
-      <c r="E501" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B502" t="str">
-        <v>002555</v>
-      </c>
-      <c r="C502" t="str">
-        <v>三七互娱</v>
-      </c>
-      <c r="D502">
-        <v>14</v>
-      </c>
-      <c r="E502" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E502"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E450"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E490"/>
+  <dimension ref="A1:E424"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -16161,1139 +15276,16 @@
         <v>202509190619</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B425" t="str">
-        <v>000725</v>
-      </c>
-      <c r="C425" t="str">
-        <v>京东方A</v>
-      </c>
-      <c r="D425">
-        <v>4.91</v>
-      </c>
-      <c r="E425" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B426" t="str">
-        <v>001380</v>
-      </c>
-      <c r="C426" t="str">
-        <v>华纬科技</v>
-      </c>
-      <c r="D426">
-        <v>5.22</v>
-      </c>
-      <c r="E426" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B427" t="str">
-        <v>002074</v>
-      </c>
-      <c r="C427" t="str">
-        <v>国轩高科</v>
-      </c>
-      <c r="D427">
-        <v>4.75</v>
-      </c>
-      <c r="E427" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B428" t="str">
-        <v>159781</v>
-      </c>
-      <c r="C428" t="str">
-        <v>科创创业ETF</v>
-      </c>
-      <c r="D428">
-        <v>6.11</v>
-      </c>
-      <c r="E428" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B429" t="str">
-        <v>513100</v>
-      </c>
-      <c r="C429" t="str">
-        <v>纳指ETF</v>
-      </c>
-      <c r="D429">
-        <v>5.17</v>
-      </c>
-      <c r="E429" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B430" t="str">
-        <v>513290</v>
-      </c>
-      <c r="C430" t="str">
-        <v>纳指生物科技ETF</v>
-      </c>
-      <c r="D430">
-        <v>0.97</v>
-      </c>
-      <c r="E430" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B431" t="str">
-        <v>600580</v>
-      </c>
-      <c r="C431" t="str">
-        <v>卧龙电驱</v>
-      </c>
-      <c r="D431">
-        <v>5.69</v>
-      </c>
-      <c r="E431" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B432" t="str">
-        <v>601878</v>
-      </c>
-      <c r="C432" t="str">
-        <v>浙商证券</v>
-      </c>
-      <c r="D432">
-        <v>4.89</v>
-      </c>
-      <c r="E432" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B433" t="str">
-        <v>603119</v>
-      </c>
-      <c r="C433" t="str">
-        <v>浙江荣泰</v>
-      </c>
-      <c r="D433">
-        <v>0.03</v>
-      </c>
-      <c r="E433" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B434" t="str">
-        <v>HK01810</v>
-      </c>
-      <c r="C434" t="str">
-        <v>小米集团-W</v>
-      </c>
-      <c r="D434">
-        <v>1.02</v>
-      </c>
-      <c r="E434" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B435" t="str">
-        <v>000725</v>
-      </c>
-      <c r="C435" t="str">
-        <v>京东方A</v>
-      </c>
-      <c r="D435">
-        <v>4.91</v>
-      </c>
-      <c r="E435" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B436" t="str">
-        <v>001380</v>
-      </c>
-      <c r="C436" t="str">
-        <v>华纬科技</v>
-      </c>
-      <c r="D436">
-        <v>5.22</v>
-      </c>
-      <c r="E436" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B437" t="str">
-        <v>002074</v>
-      </c>
-      <c r="C437" t="str">
-        <v>国轩高科</v>
-      </c>
-      <c r="D437">
-        <v>4.75</v>
-      </c>
-      <c r="E437" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B438" t="str">
-        <v>159781</v>
-      </c>
-      <c r="C438" t="str">
-        <v>科创创业ETF</v>
-      </c>
-      <c r="D438">
-        <v>6.11</v>
-      </c>
-      <c r="E438" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B439" t="str">
-        <v>513100</v>
-      </c>
-      <c r="C439" t="str">
-        <v>纳指ETF</v>
-      </c>
-      <c r="D439">
-        <v>5.17</v>
-      </c>
-      <c r="E439" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B440" t="str">
-        <v>513290</v>
-      </c>
-      <c r="C440" t="str">
-        <v>纳指生物科技ETF</v>
-      </c>
-      <c r="D440">
-        <v>0.97</v>
-      </c>
-      <c r="E440" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B441" t="str">
-        <v>600580</v>
-      </c>
-      <c r="C441" t="str">
-        <v>卧龙电驱</v>
-      </c>
-      <c r="D441">
-        <v>5.69</v>
-      </c>
-      <c r="E441" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B442" t="str">
-        <v>601878</v>
-      </c>
-      <c r="C442" t="str">
-        <v>浙商证券</v>
-      </c>
-      <c r="D442">
-        <v>4.89</v>
-      </c>
-      <c r="E442" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B443" t="str">
-        <v>603119</v>
-      </c>
-      <c r="C443" t="str">
-        <v>浙江荣泰</v>
-      </c>
-      <c r="D443">
-        <v>0.03</v>
-      </c>
-      <c r="E443" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B444" t="str">
-        <v>HK01810</v>
-      </c>
-      <c r="C444" t="str">
-        <v>小米集团-W</v>
-      </c>
-      <c r="D444">
-        <v>1.02</v>
-      </c>
-      <c r="E444" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B445" t="str">
-        <v>000725</v>
-      </c>
-      <c r="C445" t="str">
-        <v>京东方A</v>
-      </c>
-      <c r="D445">
-        <v>4.91</v>
-      </c>
-      <c r="E445" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B446" t="str">
-        <v>001380</v>
-      </c>
-      <c r="C446" t="str">
-        <v>华纬科技</v>
-      </c>
-      <c r="D446">
-        <v>5.22</v>
-      </c>
-      <c r="E446" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B447" t="str">
-        <v>002074</v>
-      </c>
-      <c r="C447" t="str">
-        <v>国轩高科</v>
-      </c>
-      <c r="D447">
-        <v>4.75</v>
-      </c>
-      <c r="E447" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B448" t="str">
-        <v>159781</v>
-      </c>
-      <c r="C448" t="str">
-        <v>科创创业ETF</v>
-      </c>
-      <c r="D448">
-        <v>6.11</v>
-      </c>
-      <c r="E448" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B449" t="str">
-        <v>513100</v>
-      </c>
-      <c r="C449" t="str">
-        <v>纳指ETF</v>
-      </c>
-      <c r="D449">
-        <v>5.17</v>
-      </c>
-      <c r="E449" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B450" t="str">
-        <v>513290</v>
-      </c>
-      <c r="C450" t="str">
-        <v>纳指生物科技ETF</v>
-      </c>
-      <c r="D450">
-        <v>0.97</v>
-      </c>
-      <c r="E450" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B451" t="str">
-        <v>600580</v>
-      </c>
-      <c r="C451" t="str">
-        <v>卧龙电驱</v>
-      </c>
-      <c r="D451">
-        <v>5.69</v>
-      </c>
-      <c r="E451" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B452" t="str">
-        <v>601878</v>
-      </c>
-      <c r="C452" t="str">
-        <v>浙商证券</v>
-      </c>
-      <c r="D452">
-        <v>4.89</v>
-      </c>
-      <c r="E452" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B453" t="str">
-        <v>603119</v>
-      </c>
-      <c r="C453" t="str">
-        <v>浙江荣泰</v>
-      </c>
-      <c r="D453">
-        <v>0.03</v>
-      </c>
-      <c r="E453" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B454" t="str">
-        <v>HK01810</v>
-      </c>
-      <c r="C454" t="str">
-        <v>小米集团-W</v>
-      </c>
-      <c r="D454">
-        <v>1.02</v>
-      </c>
-      <c r="E454" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B455" t="str">
-        <v>000725</v>
-      </c>
-      <c r="C455" t="str">
-        <v>京东方A</v>
-      </c>
-      <c r="D455">
-        <v>4.91</v>
-      </c>
-      <c r="E455" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B456" t="str">
-        <v>001380</v>
-      </c>
-      <c r="C456" t="str">
-        <v>华纬科技</v>
-      </c>
-      <c r="D456">
-        <v>5.22</v>
-      </c>
-      <c r="E456" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B457" t="str">
-        <v>002074</v>
-      </c>
-      <c r="C457" t="str">
-        <v>国轩高科</v>
-      </c>
-      <c r="D457">
-        <v>4.75</v>
-      </c>
-      <c r="E457" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B458" t="str">
-        <v>159781</v>
-      </c>
-      <c r="C458" t="str">
-        <v>科创创业ETF</v>
-      </c>
-      <c r="D458">
-        <v>6.11</v>
-      </c>
-      <c r="E458" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B459" t="str">
-        <v>513100</v>
-      </c>
-      <c r="C459" t="str">
-        <v>纳指ETF</v>
-      </c>
-      <c r="D459">
-        <v>5.17</v>
-      </c>
-      <c r="E459" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B460" t="str">
-        <v>513290</v>
-      </c>
-      <c r="C460" t="str">
-        <v>纳指生物科技ETF</v>
-      </c>
-      <c r="D460">
-        <v>0.97</v>
-      </c>
-      <c r="E460" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B461" t="str">
-        <v>600580</v>
-      </c>
-      <c r="C461" t="str">
-        <v>卧龙电驱</v>
-      </c>
-      <c r="D461">
-        <v>5.69</v>
-      </c>
-      <c r="E461" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B462" t="str">
-        <v>601878</v>
-      </c>
-      <c r="C462" t="str">
-        <v>浙商证券</v>
-      </c>
-      <c r="D462">
-        <v>4.89</v>
-      </c>
-      <c r="E462" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B463" t="str">
-        <v>603119</v>
-      </c>
-      <c r="C463" t="str">
-        <v>浙江荣泰</v>
-      </c>
-      <c r="D463">
-        <v>0.03</v>
-      </c>
-      <c r="E463" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B464" t="str">
-        <v>HK01810</v>
-      </c>
-      <c r="C464" t="str">
-        <v>小米集团-W</v>
-      </c>
-      <c r="D464">
-        <v>1.02</v>
-      </c>
-      <c r="E464" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B465" t="str">
-        <v>000725</v>
-      </c>
-      <c r="C465" t="str">
-        <v>京东方A</v>
-      </c>
-      <c r="D465">
-        <v>4.91</v>
-      </c>
-      <c r="E465" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B466" t="str">
-        <v>001380</v>
-      </c>
-      <c r="C466" t="str">
-        <v>华纬科技</v>
-      </c>
-      <c r="D466">
-        <v>5.22</v>
-      </c>
-      <c r="E466" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B467" t="str">
-        <v>002074</v>
-      </c>
-      <c r="C467" t="str">
-        <v>国轩高科</v>
-      </c>
-      <c r="D467">
-        <v>4.75</v>
-      </c>
-      <c r="E467" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B468" t="str">
-        <v>159781</v>
-      </c>
-      <c r="C468" t="str">
-        <v>科创创业ETF</v>
-      </c>
-      <c r="D468">
-        <v>6.11</v>
-      </c>
-      <c r="E468" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B469" t="str">
-        <v>513100</v>
-      </c>
-      <c r="C469" t="str">
-        <v>纳指ETF</v>
-      </c>
-      <c r="D469">
-        <v>5.17</v>
-      </c>
-      <c r="E469" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B470" t="str">
-        <v>513290</v>
-      </c>
-      <c r="C470" t="str">
-        <v>纳指生物科技ETF</v>
-      </c>
-      <c r="D470">
-        <v>0.97</v>
-      </c>
-      <c r="E470" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B471" t="str">
-        <v>600580</v>
-      </c>
-      <c r="C471" t="str">
-        <v>卧龙电驱</v>
-      </c>
-      <c r="D471">
-        <v>5.69</v>
-      </c>
-      <c r="E471" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B472" t="str">
-        <v>601878</v>
-      </c>
-      <c r="C472" t="str">
-        <v>浙商证券</v>
-      </c>
-      <c r="D472">
-        <v>4.89</v>
-      </c>
-      <c r="E472" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B473" t="str">
-        <v>603119</v>
-      </c>
-      <c r="C473" t="str">
-        <v>浙江荣泰</v>
-      </c>
-      <c r="D473">
-        <v>0.03</v>
-      </c>
-      <c r="E473" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B474" t="str">
-        <v>HK01810</v>
-      </c>
-      <c r="C474" t="str">
-        <v>小米集团-W</v>
-      </c>
-      <c r="D474">
-        <v>1.02</v>
-      </c>
-      <c r="E474" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B475" t="str">
-        <v>601598</v>
-      </c>
-      <c r="C475" t="str">
-        <v>中国外运</v>
-      </c>
-      <c r="D475">
-        <v>27.01</v>
-      </c>
-      <c r="E475" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B476" t="str">
-        <v>603301</v>
-      </c>
-      <c r="C476" t="str">
-        <v>振德医疗</v>
-      </c>
-      <c r="D476">
-        <v>9.69</v>
-      </c>
-      <c r="E476" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B477" t="str">
-        <v>000014</v>
-      </c>
-      <c r="C477" t="str">
-        <v>沙河股份</v>
-      </c>
-      <c r="D477">
-        <v>1</v>
-      </c>
-      <c r="E477" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B478" t="str">
-        <v>000725</v>
-      </c>
-      <c r="C478" t="str">
-        <v>京东方A</v>
-      </c>
-      <c r="D478">
-        <v>4.91</v>
-      </c>
-      <c r="E478" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B479" t="str">
-        <v>001380</v>
-      </c>
-      <c r="C479" t="str">
-        <v>华纬科技</v>
-      </c>
-      <c r="D479">
-        <v>5.22</v>
-      </c>
-      <c r="E479" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B480" t="str">
-        <v>002074</v>
-      </c>
-      <c r="C480" t="str">
-        <v>国轩高科</v>
-      </c>
-      <c r="D480">
-        <v>4.75</v>
-      </c>
-      <c r="E480" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B481" t="str">
-        <v>159781</v>
-      </c>
-      <c r="C481" t="str">
-        <v>科创创业ETF</v>
-      </c>
-      <c r="D481">
-        <v>6.11</v>
-      </c>
-      <c r="E481" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B482" t="str">
-        <v>513100</v>
-      </c>
-      <c r="C482" t="str">
-        <v>纳指ETF</v>
-      </c>
-      <c r="D482">
-        <v>5.17</v>
-      </c>
-      <c r="E482" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B483" t="str">
-        <v>513290</v>
-      </c>
-      <c r="C483" t="str">
-        <v>纳指生物科技ETF</v>
-      </c>
-      <c r="D483">
-        <v>0.97</v>
-      </c>
-      <c r="E483" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B484" t="str">
-        <v>600580</v>
-      </c>
-      <c r="C484" t="str">
-        <v>卧龙电驱</v>
-      </c>
-      <c r="D484">
-        <v>5.69</v>
-      </c>
-      <c r="E484" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B485" t="str">
-        <v>601878</v>
-      </c>
-      <c r="C485" t="str">
-        <v>浙商证券</v>
-      </c>
-      <c r="D485">
-        <v>4.89</v>
-      </c>
-      <c r="E485" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B486" t="str">
-        <v>603119</v>
-      </c>
-      <c r="C486" t="str">
-        <v>浙江荣泰</v>
-      </c>
-      <c r="D486">
-        <v>0.03</v>
-      </c>
-      <c r="E486" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B487" t="str">
-        <v>HK01810</v>
-      </c>
-      <c r="C487" t="str">
-        <v>小米集团-W</v>
-      </c>
-      <c r="D487">
-        <v>1.02</v>
-      </c>
-      <c r="E487" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B488" t="str">
-        <v>601598</v>
-      </c>
-      <c r="C488" t="str">
-        <v>中国外运</v>
-      </c>
-      <c r="D488">
-        <v>27.01</v>
-      </c>
-      <c r="E488" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B489" t="str">
-        <v>603301</v>
-      </c>
-      <c r="C489" t="str">
-        <v>振德医疗</v>
-      </c>
-      <c r="D489">
-        <v>9.7</v>
-      </c>
-      <c r="E489" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B490" t="str">
-        <v>000014</v>
-      </c>
-      <c r="C490" t="str">
-        <v>沙河股份</v>
-      </c>
-      <c r="D490">
-        <v>1.1</v>
-      </c>
-      <c r="E490" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E490"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E424"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G784"/>
+  <dimension ref="A1:G702"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -33444,1896 +31436,9 @@
         <v>202509190619</v>
       </c>
     </row>
-    <row r="703">
-      <c r="A703" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B703" t="str">
-        <v>000089</v>
-      </c>
-      <c r="C703" t="str">
-        <v>深圳机场</v>
-      </c>
-      <c r="D703" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E703">
-        <v>5.03</v>
-      </c>
-      <c r="F703">
-        <v>5.04</v>
-      </c>
-      <c r="G703" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B704" t="str">
-        <v>000333</v>
-      </c>
-      <c r="C704" t="str">
-        <v>美的集团</v>
-      </c>
-      <c r="D704" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E704">
-        <v>9.71</v>
-      </c>
-      <c r="F704">
-        <v>1.01</v>
-      </c>
-      <c r="G704" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B705" t="str">
-        <v>000725</v>
-      </c>
-      <c r="C705" t="str">
-        <v>京东方A</v>
-      </c>
-      <c r="D705" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E705">
-        <v>4.91</v>
-      </c>
-      <c r="F705">
-        <v>5.05</v>
-      </c>
-      <c r="G705" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B706" t="str">
-        <v>000831</v>
-      </c>
-      <c r="C706" t="str">
-        <v>中国稀土</v>
-      </c>
-      <c r="D706" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E706">
-        <v>9.21</v>
-      </c>
-      <c r="F706">
-        <v>9.6</v>
-      </c>
-      <c r="G706" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B707" t="str">
-        <v>159781</v>
-      </c>
-      <c r="C707" t="str">
-        <v>科创创业ETF</v>
-      </c>
-      <c r="D707" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E707">
-        <v>6.11</v>
-      </c>
-      <c r="F707">
-        <v>6.85</v>
-      </c>
-      <c r="G707" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B708" t="str">
-        <v>510050</v>
-      </c>
-      <c r="C708" t="str">
-        <v>上证50ETF</v>
-      </c>
-      <c r="D708" t="str">
-        <v/>
-      </c>
-      <c r="E708" t="str">
-        <v/>
-      </c>
-      <c r="F708">
-        <v>1.01</v>
-      </c>
-      <c r="G708" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B709" t="str">
-        <v>510300</v>
-      </c>
-      <c r="C709" t="str">
-        <v>沪深300ETF</v>
-      </c>
-      <c r="D709" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E709">
-        <v>5.26</v>
-      </c>
-      <c r="F709">
-        <v>5.38</v>
-      </c>
-      <c r="G709" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B710" t="str">
-        <v>513100</v>
-      </c>
-      <c r="C710" t="str">
-        <v>纳指ETF</v>
-      </c>
-      <c r="D710" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E710">
-        <v>5.17</v>
-      </c>
-      <c r="F710">
-        <v>3.14</v>
-      </c>
-      <c r="G710" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B711" t="str">
-        <v>513290</v>
-      </c>
-      <c r="C711" t="str">
-        <v>纳指生物科技ETF</v>
-      </c>
-      <c r="D711" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E711">
-        <v>0.97</v>
-      </c>
-      <c r="F711">
-        <v>0.98</v>
-      </c>
-      <c r="G711" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B712" t="str">
-        <v>513400</v>
-      </c>
-      <c r="C712" t="str">
-        <v>道琼斯ETF</v>
-      </c>
-      <c r="D712" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E712">
-        <v>5.11</v>
-      </c>
-      <c r="F712">
-        <v>5.05</v>
-      </c>
-      <c r="G712" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B713" t="str">
-        <v>518880</v>
-      </c>
-      <c r="C713" t="str">
-        <v>黄金ETF</v>
-      </c>
-      <c r="D713" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E713">
-        <v>2.06</v>
-      </c>
-      <c r="F713">
-        <v>1</v>
-      </c>
-      <c r="G713" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B714" t="str">
-        <v>600085</v>
-      </c>
-      <c r="C714" t="str">
-        <v>同仁堂</v>
-      </c>
-      <c r="D714" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E714">
-        <v>1.92</v>
-      </c>
-      <c r="F714">
-        <v>0.98</v>
-      </c>
-      <c r="G714" t="str">
-        <v>202509212022</v>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B715" t="str">
-        <v>000089</v>
-      </c>
-      <c r="C715" t="str">
-        <v>深圳机场</v>
-      </c>
-      <c r="D715" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E715">
-        <v>5.03</v>
-      </c>
-      <c r="F715">
-        <v>5.04</v>
-      </c>
-      <c r="G715" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B716" t="str">
-        <v>000333</v>
-      </c>
-      <c r="C716" t="str">
-        <v>美的集团</v>
-      </c>
-      <c r="D716" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E716">
-        <v>9.71</v>
-      </c>
-      <c r="F716">
-        <v>1.01</v>
-      </c>
-      <c r="G716" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B717" t="str">
-        <v>000725</v>
-      </c>
-      <c r="C717" t="str">
-        <v>京东方A</v>
-      </c>
-      <c r="D717" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E717">
-        <v>4.91</v>
-      </c>
-      <c r="F717">
-        <v>5.05</v>
-      </c>
-      <c r="G717" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B718" t="str">
-        <v>000831</v>
-      </c>
-      <c r="C718" t="str">
-        <v>中国稀土</v>
-      </c>
-      <c r="D718" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E718">
-        <v>9.21</v>
-      </c>
-      <c r="F718">
-        <v>9.6</v>
-      </c>
-      <c r="G718" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B719" t="str">
-        <v>159781</v>
-      </c>
-      <c r="C719" t="str">
-        <v>科创创业ETF</v>
-      </c>
-      <c r="D719" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E719">
-        <v>6.11</v>
-      </c>
-      <c r="F719">
-        <v>6.85</v>
-      </c>
-      <c r="G719" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B720" t="str">
-        <v>510050</v>
-      </c>
-      <c r="C720" t="str">
-        <v>上证50ETF</v>
-      </c>
-      <c r="D720" t="str">
-        <v/>
-      </c>
-      <c r="E720" t="str">
-        <v/>
-      </c>
-      <c r="F720">
-        <v>1.01</v>
-      </c>
-      <c r="G720" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B721" t="str">
-        <v>510300</v>
-      </c>
-      <c r="C721" t="str">
-        <v>沪深300ETF</v>
-      </c>
-      <c r="D721" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E721">
-        <v>5.26</v>
-      </c>
-      <c r="F721">
-        <v>5.38</v>
-      </c>
-      <c r="G721" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B722" t="str">
-        <v>513100</v>
-      </c>
-      <c r="C722" t="str">
-        <v>纳指ETF</v>
-      </c>
-      <c r="D722" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E722">
-        <v>5.17</v>
-      </c>
-      <c r="F722">
-        <v>3.14</v>
-      </c>
-      <c r="G722" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B723" t="str">
-        <v>513290</v>
-      </c>
-      <c r="C723" t="str">
-        <v>纳指生物科技ETF</v>
-      </c>
-      <c r="D723" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E723">
-        <v>0.97</v>
-      </c>
-      <c r="F723">
-        <v>0.98</v>
-      </c>
-      <c r="G723" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B724" t="str">
-        <v>513400</v>
-      </c>
-      <c r="C724" t="str">
-        <v>道琼斯ETF</v>
-      </c>
-      <c r="D724" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E724">
-        <v>5.11</v>
-      </c>
-      <c r="F724">
-        <v>5.05</v>
-      </c>
-      <c r="G724" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B725" t="str">
-        <v>518880</v>
-      </c>
-      <c r="C725" t="str">
-        <v>黄金ETF</v>
-      </c>
-      <c r="D725" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E725">
-        <v>2.06</v>
-      </c>
-      <c r="F725">
-        <v>1</v>
-      </c>
-      <c r="G725" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B726" t="str">
-        <v>600085</v>
-      </c>
-      <c r="C726" t="str">
-        <v>同仁堂</v>
-      </c>
-      <c r="D726" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E726">
-        <v>1.92</v>
-      </c>
-      <c r="F726">
-        <v>0.98</v>
-      </c>
-      <c r="G726" t="str">
-        <v>2025-09-21 22:46:47</v>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B727" t="str">
-        <v>000089</v>
-      </c>
-      <c r="C727" t="str">
-        <v>深圳机场</v>
-      </c>
-      <c r="D727" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E727">
-        <v>5.03</v>
-      </c>
-      <c r="F727">
-        <v>5.04</v>
-      </c>
-      <c r="G727" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B728" t="str">
-        <v>000333</v>
-      </c>
-      <c r="C728" t="str">
-        <v>美的集团</v>
-      </c>
-      <c r="D728" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E728">
-        <v>9.71</v>
-      </c>
-      <c r="F728">
-        <v>1.01</v>
-      </c>
-      <c r="G728" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B729" t="str">
-        <v>000725</v>
-      </c>
-      <c r="C729" t="str">
-        <v>京东方A</v>
-      </c>
-      <c r="D729" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E729">
-        <v>4.91</v>
-      </c>
-      <c r="F729">
-        <v>5.05</v>
-      </c>
-      <c r="G729" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B730" t="str">
-        <v>000831</v>
-      </c>
-      <c r="C730" t="str">
-        <v>中国稀土</v>
-      </c>
-      <c r="D730" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E730">
-        <v>9.21</v>
-      </c>
-      <c r="F730">
-        <v>9.6</v>
-      </c>
-      <c r="G730" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B731" t="str">
-        <v>159781</v>
-      </c>
-      <c r="C731" t="str">
-        <v>科创创业ETF</v>
-      </c>
-      <c r="D731" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E731">
-        <v>6.11</v>
-      </c>
-      <c r="F731">
-        <v>6.85</v>
-      </c>
-      <c r="G731" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B732" t="str">
-        <v>510050</v>
-      </c>
-      <c r="C732" t="str">
-        <v>上证50ETF</v>
-      </c>
-      <c r="D732" t="str">
-        <v/>
-      </c>
-      <c r="E732" t="str">
-        <v/>
-      </c>
-      <c r="F732">
-        <v>1.01</v>
-      </c>
-      <c r="G732" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B733" t="str">
-        <v>510300</v>
-      </c>
-      <c r="C733" t="str">
-        <v>沪深300ETF</v>
-      </c>
-      <c r="D733" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E733">
-        <v>5.26</v>
-      </c>
-      <c r="F733">
-        <v>5.38</v>
-      </c>
-      <c r="G733" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B734" t="str">
-        <v>513100</v>
-      </c>
-      <c r="C734" t="str">
-        <v>纳指ETF</v>
-      </c>
-      <c r="D734" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E734">
-        <v>5.17</v>
-      </c>
-      <c r="F734">
-        <v>3.14</v>
-      </c>
-      <c r="G734" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B735" t="str">
-        <v>513290</v>
-      </c>
-      <c r="C735" t="str">
-        <v>纳指生物科技ETF</v>
-      </c>
-      <c r="D735" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E735">
-        <v>0.97</v>
-      </c>
-      <c r="F735">
-        <v>0.98</v>
-      </c>
-      <c r="G735" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B736" t="str">
-        <v>513400</v>
-      </c>
-      <c r="C736" t="str">
-        <v>道琼斯ETF</v>
-      </c>
-      <c r="D736" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E736">
-        <v>5.11</v>
-      </c>
-      <c r="F736">
-        <v>5.05</v>
-      </c>
-      <c r="G736" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B737" t="str">
-        <v>518880</v>
-      </c>
-      <c r="C737" t="str">
-        <v>黄金ETF</v>
-      </c>
-      <c r="D737" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E737">
-        <v>2.06</v>
-      </c>
-      <c r="F737">
-        <v>1</v>
-      </c>
-      <c r="G737" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B738" t="str">
-        <v>600085</v>
-      </c>
-      <c r="C738" t="str">
-        <v>同仁堂</v>
-      </c>
-      <c r="D738" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E738">
-        <v>1.92</v>
-      </c>
-      <c r="F738">
-        <v>0.98</v>
-      </c>
-      <c r="G738" t="str">
-        <v>202509212305</v>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B739" t="str">
-        <v>000089</v>
-      </c>
-      <c r="C739" t="str">
-        <v>深圳机场</v>
-      </c>
-      <c r="D739" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E739">
-        <v>5.03</v>
-      </c>
-      <c r="F739">
-        <v>5.04</v>
-      </c>
-      <c r="G739" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B740" t="str">
-        <v>000333</v>
-      </c>
-      <c r="C740" t="str">
-        <v>美的集团</v>
-      </c>
-      <c r="D740" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E740">
-        <v>9.71</v>
-      </c>
-      <c r="F740">
-        <v>1.01</v>
-      </c>
-      <c r="G740" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B741" t="str">
-        <v>000725</v>
-      </c>
-      <c r="C741" t="str">
-        <v>京东方A</v>
-      </c>
-      <c r="D741" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E741">
-        <v>4.91</v>
-      </c>
-      <c r="F741">
-        <v>5.05</v>
-      </c>
-      <c r="G741" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B742" t="str">
-        <v>000831</v>
-      </c>
-      <c r="C742" t="str">
-        <v>中国稀土</v>
-      </c>
-      <c r="D742" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E742">
-        <v>9.21</v>
-      </c>
-      <c r="F742">
-        <v>9.6</v>
-      </c>
-      <c r="G742" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B743" t="str">
-        <v>159781</v>
-      </c>
-      <c r="C743" t="str">
-        <v>科创创业ETF</v>
-      </c>
-      <c r="D743" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E743">
-        <v>6.11</v>
-      </c>
-      <c r="F743">
-        <v>6.85</v>
-      </c>
-      <c r="G743" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B744" t="str">
-        <v>510050</v>
-      </c>
-      <c r="C744" t="str">
-        <v>上证50ETF</v>
-      </c>
-      <c r="D744" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E744">
-        <v>5.14</v>
-      </c>
-      <c r="F744">
-        <v>1.01</v>
-      </c>
-      <c r="G744" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B745" t="str">
-        <v>510300</v>
-      </c>
-      <c r="C745" t="str">
-        <v>沪深300ETF</v>
-      </c>
-      <c r="D745" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E745">
-        <v>5.26</v>
-      </c>
-      <c r="F745">
-        <v>5.38</v>
-      </c>
-      <c r="G745" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B746" t="str">
-        <v>513100</v>
-      </c>
-      <c r="C746" t="str">
-        <v>纳指ETF</v>
-      </c>
-      <c r="D746" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E746">
-        <v>5.17</v>
-      </c>
-      <c r="F746">
-        <v>3.14</v>
-      </c>
-      <c r="G746" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B747" t="str">
-        <v>513290</v>
-      </c>
-      <c r="C747" t="str">
-        <v>纳指生物科技ETF</v>
-      </c>
-      <c r="D747" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E747">
-        <v>0.97</v>
-      </c>
-      <c r="F747">
-        <v>0.98</v>
-      </c>
-      <c r="G747" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B748" t="str">
-        <v>513400</v>
-      </c>
-      <c r="C748" t="str">
-        <v>道琼斯ETF</v>
-      </c>
-      <c r="D748" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E748">
-        <v>5.11</v>
-      </c>
-      <c r="F748">
-        <v>5.05</v>
-      </c>
-      <c r="G748" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B749" t="str">
-        <v>518880</v>
-      </c>
-      <c r="C749" t="str">
-        <v>黄金ETF</v>
-      </c>
-      <c r="D749" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E749">
-        <v>2.06</v>
-      </c>
-      <c r="F749">
-        <v>1</v>
-      </c>
-      <c r="G749" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B750" t="str">
-        <v>600085</v>
-      </c>
-      <c r="C750" t="str">
-        <v>同仁堂</v>
-      </c>
-      <c r="D750" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E750">
-        <v>1.92</v>
-      </c>
-      <c r="F750">
-        <v>0.98</v>
-      </c>
-      <c r="G750" t="str">
-        <v>202509220007</v>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B751" t="str">
-        <v>000089</v>
-      </c>
-      <c r="C751" t="str">
-        <v>深圳机场</v>
-      </c>
-      <c r="D751" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E751">
-        <v>5.03</v>
-      </c>
-      <c r="F751">
-        <v>5.04</v>
-      </c>
-      <c r="G751" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B752" t="str">
-        <v>000333</v>
-      </c>
-      <c r="C752" t="str">
-        <v>美的集团</v>
-      </c>
-      <c r="D752" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E752">
-        <v>9.71</v>
-      </c>
-      <c r="F752">
-        <v>1.01</v>
-      </c>
-      <c r="G752" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B753" t="str">
-        <v>000725</v>
-      </c>
-      <c r="C753" t="str">
-        <v>京东方A</v>
-      </c>
-      <c r="D753" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E753">
-        <v>4.91</v>
-      </c>
-      <c r="F753">
-        <v>5.05</v>
-      </c>
-      <c r="G753" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B754" t="str">
-        <v>000831</v>
-      </c>
-      <c r="C754" t="str">
-        <v>中国稀土</v>
-      </c>
-      <c r="D754" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E754">
-        <v>9.21</v>
-      </c>
-      <c r="F754">
-        <v>9.6</v>
-      </c>
-      <c r="G754" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B755" t="str">
-        <v>159781</v>
-      </c>
-      <c r="C755" t="str">
-        <v>科创创业ETF</v>
-      </c>
-      <c r="D755" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E755">
-        <v>6.11</v>
-      </c>
-      <c r="F755">
-        <v>6.85</v>
-      </c>
-      <c r="G755" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B756" t="str">
-        <v>510050</v>
-      </c>
-      <c r="C756" t="str">
-        <v>上证50ETF</v>
-      </c>
-      <c r="D756" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E756">
-        <v>5.14</v>
-      </c>
-      <c r="F756">
-        <v>1.01</v>
-      </c>
-      <c r="G756" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B757" t="str">
-        <v>510300</v>
-      </c>
-      <c r="C757" t="str">
-        <v>沪深300ETF</v>
-      </c>
-      <c r="D757" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E757">
-        <v>5.26</v>
-      </c>
-      <c r="F757">
-        <v>5.38</v>
-      </c>
-      <c r="G757" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B758" t="str">
-        <v>513100</v>
-      </c>
-      <c r="C758" t="str">
-        <v>纳指ETF</v>
-      </c>
-      <c r="D758" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E758">
-        <v>5.17</v>
-      </c>
-      <c r="F758">
-        <v>3.14</v>
-      </c>
-      <c r="G758" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B759" t="str">
-        <v>513290</v>
-      </c>
-      <c r="C759" t="str">
-        <v>纳指生物科技ETF</v>
-      </c>
-      <c r="D759" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E759">
-        <v>0.97</v>
-      </c>
-      <c r="F759">
-        <v>0.98</v>
-      </c>
-      <c r="G759" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B760" t="str">
-        <v>513400</v>
-      </c>
-      <c r="C760" t="str">
-        <v>道琼斯ETF</v>
-      </c>
-      <c r="D760" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E760">
-        <v>5.11</v>
-      </c>
-      <c r="F760">
-        <v>5.05</v>
-      </c>
-      <c r="G760" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B761" t="str">
-        <v>518880</v>
-      </c>
-      <c r="C761" t="str">
-        <v>黄金ETF</v>
-      </c>
-      <c r="D761" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E761">
-        <v>2.06</v>
-      </c>
-      <c r="F761">
-        <v>1</v>
-      </c>
-      <c r="G761" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B762" t="str">
-        <v>600085</v>
-      </c>
-      <c r="C762" t="str">
-        <v>同仁堂</v>
-      </c>
-      <c r="D762" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E762">
-        <v>1.92</v>
-      </c>
-      <c r="F762">
-        <v>0.98</v>
-      </c>
-      <c r="G762" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B763" t="str">
-        <v>603391</v>
-      </c>
-      <c r="C763" t="str">
-        <v>力聚热能</v>
-      </c>
-      <c r="D763" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E763">
-        <v>26.47</v>
-      </c>
-      <c r="F763">
-        <v>13</v>
-      </c>
-      <c r="G763" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B764" t="str">
-        <v>002555</v>
-      </c>
-      <c r="C764" t="str">
-        <v>三七互娱</v>
-      </c>
-      <c r="D764" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E764">
-        <v>14.71</v>
-      </c>
-      <c r="F764">
-        <v>7</v>
-      </c>
-      <c r="G764" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B765" t="str">
-        <v>601598</v>
-      </c>
-      <c r="C765" t="str">
-        <v>中国外运</v>
-      </c>
-      <c r="D765" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E765">
-        <v>27.01</v>
-      </c>
-      <c r="F765">
-        <v>13</v>
-      </c>
-      <c r="G765" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B766" t="str">
-        <v>603301</v>
-      </c>
-      <c r="C766" t="str">
-        <v>振德医疗</v>
-      </c>
-      <c r="D766" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E766">
-        <v>9.69</v>
-      </c>
-      <c r="F766">
-        <v>4</v>
-      </c>
-      <c r="G766" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B767" t="str">
-        <v>000014</v>
-      </c>
-      <c r="C767" t="str">
-        <v>沙河股份</v>
-      </c>
-      <c r="D767" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E767">
-        <v>1</v>
-      </c>
-      <c r="F767">
-        <v>1.5</v>
-      </c>
-      <c r="G767" t="str">
-        <v>202509220010</v>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B768" t="str">
-        <v>000089</v>
-      </c>
-      <c r="C768" t="str">
-        <v>深圳机场</v>
-      </c>
-      <c r="D768" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E768">
-        <v>5.03</v>
-      </c>
-      <c r="F768">
-        <v>5.04</v>
-      </c>
-      <c r="G768" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B769" t="str">
-        <v>000333</v>
-      </c>
-      <c r="C769" t="str">
-        <v>美的集团</v>
-      </c>
-      <c r="D769" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E769">
-        <v>9.71</v>
-      </c>
-      <c r="F769">
-        <v>1.01</v>
-      </c>
-      <c r="G769" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B770" t="str">
-        <v>000725</v>
-      </c>
-      <c r="C770" t="str">
-        <v>京东方A</v>
-      </c>
-      <c r="D770" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E770">
-        <v>4.91</v>
-      </c>
-      <c r="F770">
-        <v>5.05</v>
-      </c>
-      <c r="G770" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B771" t="str">
-        <v>000831</v>
-      </c>
-      <c r="C771" t="str">
-        <v>中国稀土</v>
-      </c>
-      <c r="D771" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E771">
-        <v>9.21</v>
-      </c>
-      <c r="F771">
-        <v>9.6</v>
-      </c>
-      <c r="G771" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B772" t="str">
-        <v>159781</v>
-      </c>
-      <c r="C772" t="str">
-        <v>科创创业ETF</v>
-      </c>
-      <c r="D772" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E772">
-        <v>6.11</v>
-      </c>
-      <c r="F772">
-        <v>6.85</v>
-      </c>
-      <c r="G772" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B773" t="str">
-        <v>510050</v>
-      </c>
-      <c r="C773" t="str">
-        <v>上证50ETF</v>
-      </c>
-      <c r="D773" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E773">
-        <v>5.14</v>
-      </c>
-      <c r="F773">
-        <v>1.01</v>
-      </c>
-      <c r="G773" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B774" t="str">
-        <v>510300</v>
-      </c>
-      <c r="C774" t="str">
-        <v>沪深300ETF</v>
-      </c>
-      <c r="D774" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E774">
-        <v>5.26</v>
-      </c>
-      <c r="F774">
-        <v>5.38</v>
-      </c>
-      <c r="G774" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B775" t="str">
-        <v>513100</v>
-      </c>
-      <c r="C775" t="str">
-        <v>纳指ETF</v>
-      </c>
-      <c r="D775" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E775">
-        <v>5.17</v>
-      </c>
-      <c r="F775">
-        <v>3.14</v>
-      </c>
-      <c r="G775" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B776" t="str">
-        <v>513290</v>
-      </c>
-      <c r="C776" t="str">
-        <v>纳指生物科技ETF</v>
-      </c>
-      <c r="D776" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E776">
-        <v>0.97</v>
-      </c>
-      <c r="F776">
-        <v>0.98</v>
-      </c>
-      <c r="G776" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B777" t="str">
-        <v>513400</v>
-      </c>
-      <c r="C777" t="str">
-        <v>道琼斯ETF</v>
-      </c>
-      <c r="D777" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E777">
-        <v>5.11</v>
-      </c>
-      <c r="F777">
-        <v>5.05</v>
-      </c>
-      <c r="G777" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B778" t="str">
-        <v>518880</v>
-      </c>
-      <c r="C778" t="str">
-        <v>黄金ETF</v>
-      </c>
-      <c r="D778" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E778">
-        <v>2.06</v>
-      </c>
-      <c r="F778">
-        <v>1</v>
-      </c>
-      <c r="G778" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B779" t="str">
-        <v>600085</v>
-      </c>
-      <c r="C779" t="str">
-        <v>同仁堂</v>
-      </c>
-      <c r="D779" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E779">
-        <v>1.92</v>
-      </c>
-      <c r="F779">
-        <v>0.98</v>
-      </c>
-      <c r="G779" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B780" t="str">
-        <v>603391</v>
-      </c>
-      <c r="C780" t="str">
-        <v>力聚热能</v>
-      </c>
-      <c r="D780" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E780">
-        <v>26.47</v>
-      </c>
-      <c r="F780">
-        <v>13</v>
-      </c>
-      <c r="G780" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B781" t="str">
-        <v>002555</v>
-      </c>
-      <c r="C781" t="str">
-        <v>三七互娱</v>
-      </c>
-      <c r="D781" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E781">
-        <v>14.71</v>
-      </c>
-      <c r="F781">
-        <v>7</v>
-      </c>
-      <c r="G781" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B782" t="str">
-        <v>601598</v>
-      </c>
-      <c r="C782" t="str">
-        <v>中国外运</v>
-      </c>
-      <c r="D782" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E782">
-        <v>27.01</v>
-      </c>
-      <c r="F782">
-        <v>12</v>
-      </c>
-      <c r="G782" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B783" t="str">
-        <v>603301</v>
-      </c>
-      <c r="C783" t="str">
-        <v>振德医疗</v>
-      </c>
-      <c r="D783" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E783">
-        <v>9.69</v>
-      </c>
-      <c r="F783">
-        <v>3</v>
-      </c>
-      <c r="G783" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B784" t="str">
-        <v>000014</v>
-      </c>
-      <c r="C784" t="str">
-        <v>沙河股份</v>
-      </c>
-      <c r="D784" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E784">
-        <v>1</v>
-      </c>
-      <c r="F784">
-        <v>1.2</v>
-      </c>
-      <c r="G784" t="str">
-        <v>202509220028</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G784"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G702"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E458"/>
+  <dimension ref="A1:E466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11884,6 +11884,206 @@
       <c r="E458" t="inlineStr">
         <is>
           <t>202509230952</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>000089</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>深圳机场</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>中国稀土</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>513400</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>道琼斯ETF</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>202509241007</t>
         </is>
       </c>
     </row>
@@ -11898,7 +12098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E436"/>
+  <dimension ref="A1:E447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22805,6 +23005,281 @@
       <c r="E436" t="inlineStr">
         <is>
           <t>202509230952</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>华纬科技</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>002074</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>600580</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>601598</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>中国外运</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>601878</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>浙商证券</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>HK01810</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>小米集团-W</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>1</v>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>202509241007</t>
         </is>
       </c>
     </row>
@@ -22819,7 +23294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G714"/>
+  <dimension ref="A1:G726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46393,6 +46868,402 @@
         </is>
       </c>
     </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>000089</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>深圳机场</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E715" t="n">
+        <v>5</v>
+      </c>
+      <c r="F715" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E716" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="F716" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E717" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F717" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>中国稀土</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E718" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="F718" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E719" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F719" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E720" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="F720" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E721" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="F721" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E722" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="F722" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E723" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F723" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>513400</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>道琼斯ETF</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E724" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="F724" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E725" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F725" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E726" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F726" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>202509241007</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E466"/>
+  <dimension ref="A1:E474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12084,6 +12084,206 @@
       <c r="E466" t="inlineStr">
         <is>
           <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>000089</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>深圳机场</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>中国稀土</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D470" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>513400</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>道琼斯ETF</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>202509241121</t>
         </is>
       </c>
     </row>
@@ -12098,7 +12298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E447"/>
+  <dimension ref="A1:E458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23280,6 +23480,281 @@
       <c r="E447" t="inlineStr">
         <is>
           <t>202509241007</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>华纬科技</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>002074</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>600580</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>601598</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>中国外运</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>20</v>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>601878</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>浙商证券</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>HK01810</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>小米集团-W</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>202509241121</t>
         </is>
       </c>
     </row>
@@ -23294,7 +23769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G726"/>
+  <dimension ref="A1:G738"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47264,6 +47739,402 @@
         </is>
       </c>
     </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>000089</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>深圳机场</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E727" t="n">
+        <v>5</v>
+      </c>
+      <c r="F727" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E728" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="F728" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E729" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F729" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>中国稀土</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E730" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="F730" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E731" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F731" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E732" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="F732" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E733" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="F733" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E734" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="F734" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>大成</t>
+        </is>
+      </c>
+      <c r="E735" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F735" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G735" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>513400</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>道琼斯ETF</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E736" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="F736" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="G736" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E737" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F737" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G737" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>大智</t>
+        </is>
+      </c>
+      <c r="E738" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F738" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G738" t="inlineStr">
+        <is>
+          <t>202509241121</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -8748,7 +8748,7 @@
         <v>5.06</v>
       </c>
       <c r="E491" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="492">
@@ -8765,7 +8765,7 @@
         <v>9.61</v>
       </c>
       <c r="E492" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="493">
@@ -8782,7 +8782,7 @@
         <v>8.92</v>
       </c>
       <c r="E493" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="494">
@@ -8799,7 +8799,7 @@
         <v>5.27</v>
       </c>
       <c r="E494" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="495">
@@ -8816,7 +8816,7 @@
         <v>5.13</v>
       </c>
       <c r="E495" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="496">
@@ -8833,7 +8833,7 @@
         <v>2.11</v>
       </c>
       <c r="E496" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="497">
@@ -8850,7 +8850,7 @@
         <v>1.92</v>
       </c>
       <c r="E497" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="498">
@@ -8867,7 +8867,7 @@
         <v>0.99</v>
       </c>
       <c r="E498" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
   </sheetData>
@@ -17042,7 +17042,7 @@
         <v>4.92</v>
       </c>
       <c r="E480" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="481">
@@ -17059,7 +17059,7 @@
         <v>5.44</v>
       </c>
       <c r="E481" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="482">
@@ -17076,7 +17076,7 @@
         <v>4.74</v>
       </c>
       <c r="E482" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="483">
@@ -17093,7 +17093,7 @@
         <v>6.14</v>
       </c>
       <c r="E483" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="484">
@@ -17110,7 +17110,7 @@
         <v>5.2</v>
       </c>
       <c r="E484" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="485">
@@ -17127,7 +17127,7 @@
         <v>0.97</v>
       </c>
       <c r="E485" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="486">
@@ -17144,7 +17144,7 @@
         <v>10</v>
       </c>
       <c r="E486" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="487">
@@ -17161,7 +17161,7 @@
         <v>4.84</v>
       </c>
       <c r="E487" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="488">
@@ -17178,7 +17178,7 @@
         <v>0.03</v>
       </c>
       <c r="E488" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="489">
@@ -17195,7 +17195,7 @@
         <v>1.01</v>
       </c>
       <c r="E489" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
   </sheetData>
@@ -34759,7 +34759,7 @@
         <v>5.06</v>
       </c>
       <c r="G763" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="764">
@@ -34782,7 +34782,7 @@
         <v>0.99</v>
       </c>
       <c r="G764" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="765">
@@ -34805,7 +34805,7 @@
         <v>5.1</v>
       </c>
       <c r="G765" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="766">
@@ -34828,7 +34828,7 @@
         <v>9.28</v>
       </c>
       <c r="G766" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="767">
@@ -34851,7 +34851,7 @@
         <v>6.94</v>
       </c>
       <c r="G767" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="768">
@@ -34874,7 +34874,7 @@
         <v>1.01</v>
       </c>
       <c r="G768" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="769">
@@ -34897,7 +34897,7 @@
         <v>5.39</v>
       </c>
       <c r="G769" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="770">
@@ -34920,7 +34920,7 @@
         <v>3.19</v>
       </c>
       <c r="G770" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="771">
@@ -34943,7 +34943,7 @@
         <v>0.98</v>
       </c>
       <c r="G771" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="772">
@@ -34966,7 +34966,7 @@
         <v>5.06</v>
       </c>
       <c r="G772" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="773">
@@ -34989,7 +34989,7 @@
         <v>1.02</v>
       </c>
       <c r="G773" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
     <row r="774">
@@ -35012,7 +35012,7 @@
         <v>0.97</v>
       </c>
       <c r="G774" t="str">
-        <v>202509242204</v>
+        <v>202509242244</v>
       </c>
     </row>
   </sheetData>

--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E498"/>
+  <dimension ref="A1:E490"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -8734,153 +8734,17 @@
         <v>202509241425</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B491" t="str">
-        <v>000089</v>
-      </c>
-      <c r="C491" t="str">
-        <v>深圳机场</v>
-      </c>
-      <c r="D491">
-        <v>5.06</v>
-      </c>
-      <c r="E491" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B492" t="str">
-        <v>000333</v>
-      </c>
-      <c r="C492" t="str">
-        <v>美的集团</v>
-      </c>
-      <c r="D492">
-        <v>9.61</v>
-      </c>
-      <c r="E492" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B493" t="str">
-        <v>000831</v>
-      </c>
-      <c r="C493" t="str">
-        <v>中国稀土</v>
-      </c>
-      <c r="D493">
-        <v>8.92</v>
-      </c>
-      <c r="E493" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B494" t="str">
-        <v>510300</v>
-      </c>
-      <c r="C494" t="str">
-        <v>沪深300ETF</v>
-      </c>
-      <c r="D494">
-        <v>5.27</v>
-      </c>
-      <c r="E494" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B495" t="str">
-        <v>513400</v>
-      </c>
-      <c r="C495" t="str">
-        <v>道琼斯ETF</v>
-      </c>
-      <c r="D495">
-        <v>5.13</v>
-      </c>
-      <c r="E495" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B496" t="str">
-        <v>518880</v>
-      </c>
-      <c r="C496" t="str">
-        <v>黄金ETF</v>
-      </c>
-      <c r="D496">
-        <v>2.11</v>
-      </c>
-      <c r="E496" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B497" t="str">
-        <v>600085</v>
-      </c>
-      <c r="C497" t="str">
-        <v>同仁堂</v>
-      </c>
-      <c r="D497">
-        <v>1.92</v>
-      </c>
-      <c r="E497" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="str">
-        <v>大智 (稳健智远)</v>
-      </c>
-      <c r="B498" t="str">
-        <v>601899</v>
-      </c>
-      <c r="C498" t="str">
-        <v>紫金矿业</v>
-      </c>
-      <c r="D498">
-        <v>0.99</v>
-      </c>
-      <c r="E498" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E498"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E490"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E489"/>
+  <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -17028,187 +16892,17 @@
         <v>202509241425</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B480" t="str">
-        <v>000725</v>
-      </c>
-      <c r="C480" t="str">
-        <v>京东方A</v>
-      </c>
-      <c r="D480">
-        <v>4.92</v>
-      </c>
-      <c r="E480" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B481" t="str">
-        <v>001380</v>
-      </c>
-      <c r="C481" t="str">
-        <v>华纬科技</v>
-      </c>
-      <c r="D481">
-        <v>5.44</v>
-      </c>
-      <c r="E481" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B482" t="str">
-        <v>002074</v>
-      </c>
-      <c r="C482" t="str">
-        <v>国轩高科</v>
-      </c>
-      <c r="D482">
-        <v>4.74</v>
-      </c>
-      <c r="E482" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B483" t="str">
-        <v>159781</v>
-      </c>
-      <c r="C483" t="str">
-        <v>科创创业ETF</v>
-      </c>
-      <c r="D483">
-        <v>6.14</v>
-      </c>
-      <c r="E483" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B484" t="str">
-        <v>513100</v>
-      </c>
-      <c r="C484" t="str">
-        <v>纳指ETF</v>
-      </c>
-      <c r="D484">
-        <v>5.2</v>
-      </c>
-      <c r="E484" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B485" t="str">
-        <v>513290</v>
-      </c>
-      <c r="C485" t="str">
-        <v>纳指生物科技ETF</v>
-      </c>
-      <c r="D485">
-        <v>0.97</v>
-      </c>
-      <c r="E485" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B486" t="str">
-        <v>601598</v>
-      </c>
-      <c r="C486" t="str">
-        <v>中国外运</v>
-      </c>
-      <c r="D486">
-        <v>10</v>
-      </c>
-      <c r="E486" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B487" t="str">
-        <v>601878</v>
-      </c>
-      <c r="C487" t="str">
-        <v>浙商证券</v>
-      </c>
-      <c r="D487">
-        <v>4.84</v>
-      </c>
-      <c r="E487" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B488" t="str">
-        <v>603119</v>
-      </c>
-      <c r="C488" t="str">
-        <v>浙江荣泰</v>
-      </c>
-      <c r="D488">
-        <v>0.03</v>
-      </c>
-      <c r="E488" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="str">
-        <v>大成 (锐进先锋)</v>
-      </c>
-      <c r="B489" t="str">
-        <v>HK01810</v>
-      </c>
-      <c r="C489" t="str">
-        <v>小米集团-W</v>
-      </c>
-      <c r="D489">
-        <v>1.01</v>
-      </c>
-      <c r="E489" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E489"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E479"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G774"/>
+  <dimension ref="A1:G762"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -34739,286 +34433,10 @@
         <v>202509241425</v>
       </c>
     </row>
-    <row r="763">
-      <c r="A763" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B763" t="str">
-        <v>000089</v>
-      </c>
-      <c r="C763" t="str">
-        <v>深圳机场</v>
-      </c>
-      <c r="D763" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E763">
-        <v>5</v>
-      </c>
-      <c r="F763">
-        <v>5.06</v>
-      </c>
-      <c r="G763" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B764" t="str">
-        <v>000333</v>
-      </c>
-      <c r="C764" t="str">
-        <v>美的集团</v>
-      </c>
-      <c r="D764" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E764">
-        <v>9.71</v>
-      </c>
-      <c r="F764">
-        <v>0.99</v>
-      </c>
-      <c r="G764" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B765" t="str">
-        <v>000725</v>
-      </c>
-      <c r="C765" t="str">
-        <v>京东方A</v>
-      </c>
-      <c r="D765" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E765">
-        <v>4.96</v>
-      </c>
-      <c r="F765">
-        <v>5.1</v>
-      </c>
-      <c r="G765" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B766" t="str">
-        <v>000831</v>
-      </c>
-      <c r="C766" t="str">
-        <v>中国稀土</v>
-      </c>
-      <c r="D766" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E766">
-        <v>9.86</v>
-      </c>
-      <c r="F766">
-        <v>9.28</v>
-      </c>
-      <c r="G766" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B767" t="str">
-        <v>159781</v>
-      </c>
-      <c r="C767" t="str">
-        <v>科创创业ETF</v>
-      </c>
-      <c r="D767" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E767">
-        <v>6.13</v>
-      </c>
-      <c r="F767">
-        <v>6.94</v>
-      </c>
-      <c r="G767" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B768" t="str">
-        <v>510050</v>
-      </c>
-      <c r="C768" t="str">
-        <v>上证50ETF</v>
-      </c>
-      <c r="D768" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E768">
-        <v>5.14</v>
-      </c>
-      <c r="F768">
-        <v>1.01</v>
-      </c>
-      <c r="G768" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B769" t="str">
-        <v>510300</v>
-      </c>
-      <c r="C769" t="str">
-        <v>沪深300ETF</v>
-      </c>
-      <c r="D769" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E769">
-        <v>5.28</v>
-      </c>
-      <c r="F769">
-        <v>5.39</v>
-      </c>
-      <c r="G769" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B770" t="str">
-        <v>513100</v>
-      </c>
-      <c r="C770" t="str">
-        <v>纳指ETF</v>
-      </c>
-      <c r="D770" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E770">
-        <v>5.05</v>
-      </c>
-      <c r="F770">
-        <v>3.19</v>
-      </c>
-      <c r="G770" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B771" t="str">
-        <v>513290</v>
-      </c>
-      <c r="C771" t="str">
-        <v>纳指生物科技ETF</v>
-      </c>
-      <c r="D771" t="str">
-        <v>大成</v>
-      </c>
-      <c r="E771">
-        <v>0.98</v>
-      </c>
-      <c r="F771">
-        <v>0.98</v>
-      </c>
-      <c r="G771" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B772" t="str">
-        <v>513400</v>
-      </c>
-      <c r="C772" t="str">
-        <v>道琼斯ETF</v>
-      </c>
-      <c r="D772" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E772">
-        <v>5.05</v>
-      </c>
-      <c r="F772">
-        <v>5.06</v>
-      </c>
-      <c r="G772" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B773" t="str">
-        <v>518880</v>
-      </c>
-      <c r="C773" t="str">
-        <v>黄金ETF</v>
-      </c>
-      <c r="D773" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E773">
-        <v>2.04</v>
-      </c>
-      <c r="F773">
-        <v>1.02</v>
-      </c>
-      <c r="G773" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" t="str">
-        <v>范式进化投资组合</v>
-      </c>
-      <c r="B774" t="str">
-        <v>600085</v>
-      </c>
-      <c r="C774" t="str">
-        <v>同仁堂</v>
-      </c>
-      <c r="D774" t="str">
-        <v>大智</v>
-      </c>
-      <c r="E774">
-        <v>1.91</v>
-      </c>
-      <c r="F774">
-        <v>0.97</v>
-      </c>
-      <c r="G774" t="str">
-        <v>202509242244</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G774"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G762"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E490"/>
+  <dimension ref="A1:E498"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -8734,17 +8734,153 @@
         <v>202509241425</v>
       </c>
     </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B491" t="str">
+        <v>000089</v>
+      </c>
+      <c r="C491" t="str">
+        <v>深圳机场</v>
+      </c>
+      <c r="D491">
+        <v>5.06</v>
+      </c>
+      <c r="E491" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B492" t="str">
+        <v>000333</v>
+      </c>
+      <c r="C492" t="str">
+        <v>美的集团</v>
+      </c>
+      <c r="D492">
+        <v>9.61</v>
+      </c>
+      <c r="E492" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B493" t="str">
+        <v>000831</v>
+      </c>
+      <c r="C493" t="str">
+        <v>中国稀土</v>
+      </c>
+      <c r="D493">
+        <v>8.92</v>
+      </c>
+      <c r="E493" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B494" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C494" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D494">
+        <v>5.27</v>
+      </c>
+      <c r="E494" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B495" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C495" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D495">
+        <v>5.13</v>
+      </c>
+      <c r="E495" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B496" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C496" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D496">
+        <v>2.11</v>
+      </c>
+      <c r="E496" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B497" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C497" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D497">
+        <v>1.92</v>
+      </c>
+      <c r="E497" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B498" t="str">
+        <v>601899</v>
+      </c>
+      <c r="C498" t="str">
+        <v>紫金矿业</v>
+      </c>
+      <c r="D498">
+        <v>0.99</v>
+      </c>
+      <c r="E498" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E490"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E498"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E479"/>
+  <dimension ref="A1:E489"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -16892,17 +17028,187 @@
         <v>202509241425</v>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B480" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C480" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D480">
+        <v>4.92</v>
+      </c>
+      <c r="E480" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B481" t="str">
+        <v>001380</v>
+      </c>
+      <c r="C481" t="str">
+        <v>华纬科技</v>
+      </c>
+      <c r="D481">
+        <v>5.44</v>
+      </c>
+      <c r="E481" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B482" t="str">
+        <v>002074</v>
+      </c>
+      <c r="C482" t="str">
+        <v>国轩高科</v>
+      </c>
+      <c r="D482">
+        <v>4.74</v>
+      </c>
+      <c r="E482" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B483" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C483" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D483">
+        <v>6.14</v>
+      </c>
+      <c r="E483" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B484" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C484" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D484">
+        <v>5.2</v>
+      </c>
+      <c r="E484" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B485" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C485" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D485">
+        <v>0.97</v>
+      </c>
+      <c r="E485" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B486" t="str">
+        <v>601598</v>
+      </c>
+      <c r="C486" t="str">
+        <v>中国外运</v>
+      </c>
+      <c r="D486">
+        <v>3</v>
+      </c>
+      <c r="E486" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B487" t="str">
+        <v>601878</v>
+      </c>
+      <c r="C487" t="str">
+        <v>浙商证券</v>
+      </c>
+      <c r="D487">
+        <v>4.84</v>
+      </c>
+      <c r="E487" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B488" t="str">
+        <v>603119</v>
+      </c>
+      <c r="C488" t="str">
+        <v>浙江荣泰</v>
+      </c>
+      <c r="D488">
+        <v>0.03</v>
+      </c>
+      <c r="E488" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B489" t="str">
+        <v>HK01810</v>
+      </c>
+      <c r="C489" t="str">
+        <v>小米集团-W</v>
+      </c>
+      <c r="D489">
+        <v>1.01</v>
+      </c>
+      <c r="E489" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E479"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E489"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G762"/>
+  <dimension ref="A1:G774"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -34433,10 +34739,286 @@
         <v>202509241425</v>
       </c>
     </row>
+    <row r="763">
+      <c r="A763" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B763" t="str">
+        <v>000089</v>
+      </c>
+      <c r="C763" t="str">
+        <v>深圳机场</v>
+      </c>
+      <c r="D763" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E763">
+        <v>5</v>
+      </c>
+      <c r="F763">
+        <v>5.06</v>
+      </c>
+      <c r="G763" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B764" t="str">
+        <v>000333</v>
+      </c>
+      <c r="C764" t="str">
+        <v>美的集团</v>
+      </c>
+      <c r="D764" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E764">
+        <v>9.71</v>
+      </c>
+      <c r="F764">
+        <v>0.99</v>
+      </c>
+      <c r="G764" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B765" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C765" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D765" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E765">
+        <v>4.96</v>
+      </c>
+      <c r="F765">
+        <v>5.1</v>
+      </c>
+      <c r="G765" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B766" t="str">
+        <v>000831</v>
+      </c>
+      <c r="C766" t="str">
+        <v>中国稀土</v>
+      </c>
+      <c r="D766" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E766">
+        <v>9.86</v>
+      </c>
+      <c r="F766">
+        <v>9.28</v>
+      </c>
+      <c r="G766" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B767" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C767" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D767" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E767">
+        <v>6.13</v>
+      </c>
+      <c r="F767">
+        <v>6.94</v>
+      </c>
+      <c r="G767" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B768" t="str">
+        <v>510050</v>
+      </c>
+      <c r="C768" t="str">
+        <v>上证50ETF</v>
+      </c>
+      <c r="D768" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E768">
+        <v>5.14</v>
+      </c>
+      <c r="F768">
+        <v>1.01</v>
+      </c>
+      <c r="G768" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B769" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C769" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D769" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E769">
+        <v>5.28</v>
+      </c>
+      <c r="F769">
+        <v>5.39</v>
+      </c>
+      <c r="G769" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B770" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C770" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D770" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E770">
+        <v>5.05</v>
+      </c>
+      <c r="F770">
+        <v>3.19</v>
+      </c>
+      <c r="G770" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B771" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C771" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D771" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E771">
+        <v>0.98</v>
+      </c>
+      <c r="F771">
+        <v>0.98</v>
+      </c>
+      <c r="G771" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B772" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C772" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D772" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E772">
+        <v>5.05</v>
+      </c>
+      <c r="F772">
+        <v>5.06</v>
+      </c>
+      <c r="G772" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B773" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C773" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D773" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E773">
+        <v>2.04</v>
+      </c>
+      <c r="F773">
+        <v>1.02</v>
+      </c>
+      <c r="G773" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B774" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C774" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D774" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E774">
+        <v>1.91</v>
+      </c>
+      <c r="F774">
+        <v>0.97</v>
+      </c>
+      <c r="G774" t="str">
+        <v>202509251059</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G762"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G774"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E498"/>
+  <dimension ref="A1:E506"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -8870,17 +8870,153 @@
         <v>202509251059</v>
       </c>
     </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B499" t="str">
+        <v>000089</v>
+      </c>
+      <c r="C499" t="str">
+        <v>深圳机场</v>
+      </c>
+      <c r="D499">
+        <v>5.05</v>
+      </c>
+      <c r="E499" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B500" t="str">
+        <v>000333</v>
+      </c>
+      <c r="C500" t="str">
+        <v>美的集团</v>
+      </c>
+      <c r="D500">
+        <v>9.62</v>
+      </c>
+      <c r="E500" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B501" t="str">
+        <v>000831</v>
+      </c>
+      <c r="C501" t="str">
+        <v>中国稀土</v>
+      </c>
+      <c r="D501">
+        <v>8.97</v>
+      </c>
+      <c r="E501" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B502" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C502" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D502">
+        <v>5.27</v>
+      </c>
+      <c r="E502" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B503" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C503" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D503">
+        <v>5.13</v>
+      </c>
+      <c r="E503" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B504" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C504" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D504">
+        <v>2.11</v>
+      </c>
+      <c r="E504" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B505" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C505" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D505">
+        <v>1.92</v>
+      </c>
+      <c r="E505" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B506" t="str">
+        <v>601899</v>
+      </c>
+      <c r="C506" t="str">
+        <v>紫金矿业</v>
+      </c>
+      <c r="D506">
+        <v>0.98</v>
+      </c>
+      <c r="E506" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E498"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E506"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E489"/>
+  <dimension ref="A1:E499"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -17198,17 +17334,187 @@
         <v>202509251059</v>
       </c>
     </row>
+    <row r="490">
+      <c r="A490" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B490" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C490" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D490">
+        <v>4.9</v>
+      </c>
+      <c r="E490" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B491" t="str">
+        <v>001380</v>
+      </c>
+      <c r="C491" t="str">
+        <v>华纬科技</v>
+      </c>
+      <c r="D491">
+        <v>5.44</v>
+      </c>
+      <c r="E491" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B492" t="str">
+        <v>002074</v>
+      </c>
+      <c r="C492" t="str">
+        <v>国轩高科</v>
+      </c>
+      <c r="D492">
+        <v>4.82</v>
+      </c>
+      <c r="E492" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B493" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C493" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D493">
+        <v>6.13</v>
+      </c>
+      <c r="E493" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B494" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C494" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D494">
+        <v>5.2</v>
+      </c>
+      <c r="E494" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B495" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C495" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D495">
+        <v>0.97</v>
+      </c>
+      <c r="E495" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B496" t="str">
+        <v>601598</v>
+      </c>
+      <c r="C496" t="str">
+        <v>中国外运</v>
+      </c>
+      <c r="D496">
+        <v>10</v>
+      </c>
+      <c r="E496" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B497" t="str">
+        <v>601878</v>
+      </c>
+      <c r="C497" t="str">
+        <v>浙商证券</v>
+      </c>
+      <c r="D497">
+        <v>4.81</v>
+      </c>
+      <c r="E497" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B498" t="str">
+        <v>603119</v>
+      </c>
+      <c r="C498" t="str">
+        <v>浙江荣泰</v>
+      </c>
+      <c r="D498">
+        <v>0.03</v>
+      </c>
+      <c r="E498" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B499" t="str">
+        <v>HK01810</v>
+      </c>
+      <c r="C499" t="str">
+        <v>小米集团-W</v>
+      </c>
+      <c r="D499">
+        <v>1.04</v>
+      </c>
+      <c r="E499" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E489"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E499"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G774"/>
+  <dimension ref="A1:G786"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -35015,10 +35321,286 @@
         <v>202509251059</v>
       </c>
     </row>
+    <row r="775">
+      <c r="A775" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B775" t="str">
+        <v>000089</v>
+      </c>
+      <c r="C775" t="str">
+        <v>深圳机场</v>
+      </c>
+      <c r="D775" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E775">
+        <v>5</v>
+      </c>
+      <c r="F775">
+        <v>5.05</v>
+      </c>
+      <c r="G775" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B776" t="str">
+        <v>000333</v>
+      </c>
+      <c r="C776" t="str">
+        <v>美的集团</v>
+      </c>
+      <c r="D776" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E776">
+        <v>9.71</v>
+      </c>
+      <c r="F776">
+        <v>0.99</v>
+      </c>
+      <c r="G776" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B777" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C777" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D777" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E777">
+        <v>4.96</v>
+      </c>
+      <c r="F777">
+        <v>5.09</v>
+      </c>
+      <c r="G777" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B778" t="str">
+        <v>000831</v>
+      </c>
+      <c r="C778" t="str">
+        <v>中国稀土</v>
+      </c>
+      <c r="D778" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E778">
+        <v>9.86</v>
+      </c>
+      <c r="F778">
+        <v>9.34</v>
+      </c>
+      <c r="G778" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B779" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C779" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D779" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E779">
+        <v>6.13</v>
+      </c>
+      <c r="F779">
+        <v>6.94</v>
+      </c>
+      <c r="G779" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B780" t="str">
+        <v>510050</v>
+      </c>
+      <c r="C780" t="str">
+        <v>上证50ETF</v>
+      </c>
+      <c r="D780" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E780">
+        <v>5.14</v>
+      </c>
+      <c r="F780">
+        <v>1.01</v>
+      </c>
+      <c r="G780" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B781" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C781" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D781" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E781">
+        <v>5.28</v>
+      </c>
+      <c r="F781">
+        <v>5.39</v>
+      </c>
+      <c r="G781" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B782" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C782" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D782" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E782">
+        <v>5.05</v>
+      </c>
+      <c r="F782">
+        <v>3.19</v>
+      </c>
+      <c r="G782" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B783" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C783" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D783" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E783">
+        <v>0.98</v>
+      </c>
+      <c r="F783">
+        <v>0.98</v>
+      </c>
+      <c r="G783" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B784" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C784" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D784" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E784">
+        <v>5.05</v>
+      </c>
+      <c r="F784">
+        <v>5.06</v>
+      </c>
+      <c r="G784" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B785" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C785" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D785" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E785">
+        <v>2.04</v>
+      </c>
+      <c r="F785">
+        <v>1.02</v>
+      </c>
+      <c r="G785" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B786" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C786" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D786" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E786">
+        <v>1.91</v>
+      </c>
+      <c r="F786">
+        <v>0.97</v>
+      </c>
+      <c r="G786" t="str">
+        <v>202509261107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G774"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G786"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E506"/>
+  <dimension ref="A1:E514"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -9006,17 +9006,153 @@
         <v>202509261107</v>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B507" t="str">
+        <v>000089</v>
+      </c>
+      <c r="C507" t="str">
+        <v>深圳机场</v>
+      </c>
+      <c r="D507">
+        <v>5.07</v>
+      </c>
+      <c r="E507" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B508" t="str">
+        <v>000333</v>
+      </c>
+      <c r="C508" t="str">
+        <v>美的集团</v>
+      </c>
+      <c r="D508">
+        <v>9.59</v>
+      </c>
+      <c r="E508" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B509" t="str">
+        <v>000831</v>
+      </c>
+      <c r="C509" t="str">
+        <v>中国稀土</v>
+      </c>
+      <c r="D509">
+        <v>8.83</v>
+      </c>
+      <c r="E509" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B510" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C510" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D510">
+        <v>5.32</v>
+      </c>
+      <c r="E510" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B511" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C511" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D511">
+        <v>5.17</v>
+      </c>
+      <c r="E511" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B512" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C512" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D512">
+        <v>2.14</v>
+      </c>
+      <c r="E512" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B513" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C513" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D513">
+        <v>1.92</v>
+      </c>
+      <c r="E513" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B514" t="str">
+        <v>601899</v>
+      </c>
+      <c r="C514" t="str">
+        <v>紫金矿业</v>
+      </c>
+      <c r="D514">
+        <v>1.03</v>
+      </c>
+      <c r="E514" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E506"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E514"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E499"/>
+  <dimension ref="A1:E508"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -17504,17 +17640,170 @@
         <v>202509261107</v>
       </c>
     </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B500" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C500" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D500">
+        <v>4.92</v>
+      </c>
+      <c r="E500" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B501" t="str">
+        <v>001380</v>
+      </c>
+      <c r="C501" t="str">
+        <v>华纬科技</v>
+      </c>
+      <c r="D501">
+        <v>5.47</v>
+      </c>
+      <c r="E501" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B502" t="str">
+        <v>002074</v>
+      </c>
+      <c r="C502" t="str">
+        <v>国轩高科</v>
+      </c>
+      <c r="D502">
+        <v>4.87</v>
+      </c>
+      <c r="E502" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B503" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C503" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D503">
+        <v>6.24</v>
+      </c>
+      <c r="E503" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B504" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C504" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D504">
+        <v>5.32</v>
+      </c>
+      <c r="E504" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B505" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C505" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D505">
+        <v>0.99</v>
+      </c>
+      <c r="E505" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B506" t="str">
+        <v>601878</v>
+      </c>
+      <c r="C506" t="str">
+        <v>浙商证券</v>
+      </c>
+      <c r="D506">
+        <v>4.97</v>
+      </c>
+      <c r="E506" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B507" t="str">
+        <v>603119</v>
+      </c>
+      <c r="C507" t="str">
+        <v>浙江荣泰</v>
+      </c>
+      <c r="D507">
+        <v>0.03</v>
+      </c>
+      <c r="E507" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B508" t="str">
+        <v>HK01810</v>
+      </c>
+      <c r="C508" t="str">
+        <v>小米集团-W</v>
+      </c>
+      <c r="D508">
+        <v>0.99</v>
+      </c>
+      <c r="E508" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E499"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E508"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G786"/>
+  <dimension ref="A1:G798"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -35597,10 +35886,286 @@
         <v>202509261107</v>
       </c>
     </row>
+    <row r="787">
+      <c r="A787" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B787" t="str">
+        <v>000089</v>
+      </c>
+      <c r="C787" t="str">
+        <v>深圳机场</v>
+      </c>
+      <c r="D787" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E787">
+        <v>5</v>
+      </c>
+      <c r="F787">
+        <v>5.07</v>
+      </c>
+      <c r="G787" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B788" t="str">
+        <v>000333</v>
+      </c>
+      <c r="C788" t="str">
+        <v>美的集团</v>
+      </c>
+      <c r="D788" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E788">
+        <v>9.71</v>
+      </c>
+      <c r="F788">
+        <v>0.99</v>
+      </c>
+      <c r="G788" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B789" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C789" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D789" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E789">
+        <v>4.96</v>
+      </c>
+      <c r="F789">
+        <v>5.07</v>
+      </c>
+      <c r="G789" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B790" t="str">
+        <v>000831</v>
+      </c>
+      <c r="C790" t="str">
+        <v>中国稀土</v>
+      </c>
+      <c r="D790" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E790">
+        <v>9.86</v>
+      </c>
+      <c r="F790">
+        <v>9.18</v>
+      </c>
+      <c r="G790" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B791" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C791" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D791" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E791">
+        <v>6.13</v>
+      </c>
+      <c r="F791">
+        <v>7.01</v>
+      </c>
+      <c r="G791" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B792" t="str">
+        <v>510050</v>
+      </c>
+      <c r="C792" t="str">
+        <v>上证50ETF</v>
+      </c>
+      <c r="D792" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E792">
+        <v>5.14</v>
+      </c>
+      <c r="F792">
+        <v>1.02</v>
+      </c>
+      <c r="G792" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B793" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C793" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D793" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E793">
+        <v>5.28</v>
+      </c>
+      <c r="F793">
+        <v>5.44</v>
+      </c>
+      <c r="G793" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B794" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C794" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D794" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E794">
+        <v>5.05</v>
+      </c>
+      <c r="F794">
+        <v>3.24</v>
+      </c>
+      <c r="G794" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B795" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C795" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D795" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E795">
+        <v>0.98</v>
+      </c>
+      <c r="F795">
+        <v>0.99</v>
+      </c>
+      <c r="G795" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B796" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C796" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D796" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E796">
+        <v>5.05</v>
+      </c>
+      <c r="F796">
+        <v>5.1</v>
+      </c>
+      <c r="G796" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B797" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C797" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D797" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E797">
+        <v>2.04</v>
+      </c>
+      <c r="F797">
+        <v>1.03</v>
+      </c>
+      <c r="G797" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B798" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C798" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D798" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E798">
+        <v>1.91</v>
+      </c>
+      <c r="F798">
+        <v>0.97</v>
+      </c>
+      <c r="G798" t="str">
+        <v>202509301130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G786"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G798"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E514"/>
+  <dimension ref="A1:E522"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -9142,17 +9142,153 @@
         <v>202509301130</v>
       </c>
     </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B515" t="str">
+        <v>000089</v>
+      </c>
+      <c r="C515" t="str">
+        <v>深圳机场</v>
+      </c>
+      <c r="D515">
+        <v>5.03</v>
+      </c>
+      <c r="E515" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B516" t="str">
+        <v>000333</v>
+      </c>
+      <c r="C516" t="str">
+        <v>美的集团</v>
+      </c>
+      <c r="D516">
+        <v>9.3</v>
+      </c>
+      <c r="E516" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B517" t="str">
+        <v>000831</v>
+      </c>
+      <c r="C517" t="str">
+        <v>中国稀土</v>
+      </c>
+      <c r="D517">
+        <v>10.1</v>
+      </c>
+      <c r="E517" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B518" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C518" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D518">
+        <v>5.2</v>
+      </c>
+      <c r="E518" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B519" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C519" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D519">
+        <v>5.06</v>
+      </c>
+      <c r="E519" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B520" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C520" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D520">
+        <v>2.24</v>
+      </c>
+      <c r="E520" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B521" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C521" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D521">
+        <v>1.9</v>
+      </c>
+      <c r="E521" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B522" t="str">
+        <v>601899</v>
+      </c>
+      <c r="C522" t="str">
+        <v>紫金矿业</v>
+      </c>
+      <c r="D522">
+        <v>1.1</v>
+      </c>
+      <c r="E522" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E514"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E522"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E508"/>
+  <dimension ref="A1:E517"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -17793,17 +17929,170 @@
         <v>202509301130</v>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B509" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C509" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D509">
+        <v>4.93</v>
+      </c>
+      <c r="E509" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B510" t="str">
+        <v>001380</v>
+      </c>
+      <c r="C510" t="str">
+        <v>华纬科技</v>
+      </c>
+      <c r="D510">
+        <v>5.39</v>
+      </c>
+      <c r="E510" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B511" t="str">
+        <v>002074</v>
+      </c>
+      <c r="C511" t="str">
+        <v>国轩高科</v>
+      </c>
+      <c r="D511">
+        <v>4.51</v>
+      </c>
+      <c r="E511" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B512" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C512" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D512">
+        <v>5.96</v>
+      </c>
+      <c r="E512" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B513" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C513" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D513">
+        <v>5.43</v>
+      </c>
+      <c r="E513" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B514" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C514" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D514">
+        <v>1.05</v>
+      </c>
+      <c r="E514" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B515" t="str">
+        <v>601878</v>
+      </c>
+      <c r="C515" t="str">
+        <v>浙商证券</v>
+      </c>
+      <c r="D515">
+        <v>5</v>
+      </c>
+      <c r="E515" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B516" t="str">
+        <v>603119</v>
+      </c>
+      <c r="C516" t="str">
+        <v>浙江荣泰</v>
+      </c>
+      <c r="D516">
+        <v>0.03</v>
+      </c>
+      <c r="E516" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B517" t="str">
+        <v>HK01810</v>
+      </c>
+      <c r="C517" t="str">
+        <v>小米集团-W</v>
+      </c>
+      <c r="D517">
+        <v>0.91</v>
+      </c>
+      <c r="E517" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E508"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E517"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G798"/>
+  <dimension ref="A1:G809"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -36162,10 +36451,263 @@
         <v>202509301130</v>
       </c>
     </row>
+    <row r="799">
+      <c r="A799" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B799" t="str">
+        <v>000089</v>
+      </c>
+      <c r="C799" t="str">
+        <v>深圳机场</v>
+      </c>
+      <c r="D799" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E799">
+        <v>5</v>
+      </c>
+      <c r="F799">
+        <v>5.04</v>
+      </c>
+      <c r="G799" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B800" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C800" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D800" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E800">
+        <v>4.96</v>
+      </c>
+      <c r="F800">
+        <v>4.98</v>
+      </c>
+      <c r="G800" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B801" t="str">
+        <v>000831</v>
+      </c>
+      <c r="C801" t="str">
+        <v>中国稀土</v>
+      </c>
+      <c r="D801" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E801">
+        <v>9.86</v>
+      </c>
+      <c r="F801">
+        <v>10.53</v>
+      </c>
+      <c r="G801" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B802" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C802" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D802" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E802">
+        <v>6.13</v>
+      </c>
+      <c r="F802">
+        <v>6.56</v>
+      </c>
+      <c r="G802" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B803" t="str">
+        <v>510050</v>
+      </c>
+      <c r="C803" t="str">
+        <v>上证50ETF</v>
+      </c>
+      <c r="D803" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E803">
+        <v>5.14</v>
+      </c>
+      <c r="F803">
+        <v>1</v>
+      </c>
+      <c r="G803" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B804" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C804" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D804" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E804">
+        <v>5.28</v>
+      </c>
+      <c r="F804">
+        <v>5.33</v>
+      </c>
+      <c r="G804" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B805" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C805" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D805" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E805">
+        <v>5.05</v>
+      </c>
+      <c r="F805">
+        <v>3.24</v>
+      </c>
+      <c r="G805" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B806" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C806" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D806" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E806">
+        <v>0.98</v>
+      </c>
+      <c r="F806">
+        <v>1.03</v>
+      </c>
+      <c r="G806" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B807" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C807" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D807" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E807">
+        <v>5.05</v>
+      </c>
+      <c r="F807">
+        <v>5</v>
+      </c>
+      <c r="G807" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B808" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C808" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D808" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E808">
+        <v>2.04</v>
+      </c>
+      <c r="F808">
+        <v>1.08</v>
+      </c>
+      <c r="G808" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B809" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C809" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D809" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E809">
+        <v>1.91</v>
+      </c>
+      <c r="F809">
+        <v>0.96</v>
+      </c>
+      <c r="G809" t="str">
+        <v>202510141009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G798"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G809"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E522"/>
+  <dimension ref="A1:E530"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -9278,17 +9278,153 @@
         <v>202510141009</v>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B523" t="str">
+        <v>000089</v>
+      </c>
+      <c r="C523" t="str">
+        <v>深圳机场</v>
+      </c>
+      <c r="D523">
+        <v>5.03</v>
+      </c>
+      <c r="E523" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B524" t="str">
+        <v>000333</v>
+      </c>
+      <c r="C524" t="str">
+        <v>美的集团</v>
+      </c>
+      <c r="D524">
+        <v>9.3</v>
+      </c>
+      <c r="E524" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B525" t="str">
+        <v>000831</v>
+      </c>
+      <c r="C525" t="str">
+        <v>中国稀土</v>
+      </c>
+      <c r="D525">
+        <v>2.5</v>
+      </c>
+      <c r="E525" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B526" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C526" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D526">
+        <v>5.2</v>
+      </c>
+      <c r="E526" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B527" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C527" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D527">
+        <v>5.06</v>
+      </c>
+      <c r="E527" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B528" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C528" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D528">
+        <v>2.24</v>
+      </c>
+      <c r="E528" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B529" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C529" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D529">
+        <v>1.9</v>
+      </c>
+      <c r="E529" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B530" t="str">
+        <v>601899</v>
+      </c>
+      <c r="C530" t="str">
+        <v>紫金矿业</v>
+      </c>
+      <c r="D530">
+        <v>1.1</v>
+      </c>
+      <c r="E530" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E522"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E530"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E517"/>
+  <dimension ref="A1:E526"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -18082,17 +18218,170 @@
         <v>202510141009</v>
       </c>
     </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B518" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C518" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D518">
+        <v>4.93</v>
+      </c>
+      <c r="E518" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B519" t="str">
+        <v>001380</v>
+      </c>
+      <c r="C519" t="str">
+        <v>华纬科技</v>
+      </c>
+      <c r="D519">
+        <v>5.39</v>
+      </c>
+      <c r="E519" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B520" t="str">
+        <v>002074</v>
+      </c>
+      <c r="C520" t="str">
+        <v>国轩高科</v>
+      </c>
+      <c r="D520">
+        <v>4.51</v>
+      </c>
+      <c r="E520" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B521" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C521" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D521">
+        <v>5.96</v>
+      </c>
+      <c r="E521" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B522" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C522" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D522">
+        <v>5.43</v>
+      </c>
+      <c r="E522" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B523" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C523" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D523">
+        <v>1.05</v>
+      </c>
+      <c r="E523" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B524" t="str">
+        <v>601878</v>
+      </c>
+      <c r="C524" t="str">
+        <v>浙商证券</v>
+      </c>
+      <c r="D524">
+        <v>5</v>
+      </c>
+      <c r="E524" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B525" t="str">
+        <v>603119</v>
+      </c>
+      <c r="C525" t="str">
+        <v>浙江荣泰</v>
+      </c>
+      <c r="D525">
+        <v>0.03</v>
+      </c>
+      <c r="E525" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B526" t="str">
+        <v>HK01810</v>
+      </c>
+      <c r="C526" t="str">
+        <v>小米集团-W</v>
+      </c>
+      <c r="D526">
+        <v>0.91</v>
+      </c>
+      <c r="E526" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E517"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E526"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G809"/>
+  <dimension ref="A1:G820"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -36704,10 +36993,263 @@
         <v>202510141009</v>
       </c>
     </row>
+    <row r="810">
+      <c r="A810" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B810" t="str">
+        <v>000089</v>
+      </c>
+      <c r="C810" t="str">
+        <v>深圳机场</v>
+      </c>
+      <c r="D810" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E810">
+        <v>5</v>
+      </c>
+      <c r="F810">
+        <v>5.04</v>
+      </c>
+      <c r="G810" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B811" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C811" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D811" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E811">
+        <v>4.96</v>
+      </c>
+      <c r="F811">
+        <v>4.98</v>
+      </c>
+      <c r="G811" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B812" t="str">
+        <v>000831</v>
+      </c>
+      <c r="C812" t="str">
+        <v>中国稀土</v>
+      </c>
+      <c r="D812" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E812">
+        <v>9.86</v>
+      </c>
+      <c r="F812">
+        <v>3</v>
+      </c>
+      <c r="G812" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B813" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C813" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D813" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E813">
+        <v>6.13</v>
+      </c>
+      <c r="F813">
+        <v>6.56</v>
+      </c>
+      <c r="G813" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B814" t="str">
+        <v>510050</v>
+      </c>
+      <c r="C814" t="str">
+        <v>上证50ETF</v>
+      </c>
+      <c r="D814" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E814">
+        <v>5.14</v>
+      </c>
+      <c r="F814">
+        <v>1</v>
+      </c>
+      <c r="G814" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B815" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C815" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D815" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E815">
+        <v>5.28</v>
+      </c>
+      <c r="F815">
+        <v>5.33</v>
+      </c>
+      <c r="G815" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B816" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C816" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D816" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E816">
+        <v>5.05</v>
+      </c>
+      <c r="F816">
+        <v>3.24</v>
+      </c>
+      <c r="G816" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B817" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C817" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D817" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E817">
+        <v>0.98</v>
+      </c>
+      <c r="F817">
+        <v>1.03</v>
+      </c>
+      <c r="G817" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B818" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C818" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D818" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E818">
+        <v>5.05</v>
+      </c>
+      <c r="F818">
+        <v>5</v>
+      </c>
+      <c r="G818" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B819" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C819" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D819" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E819">
+        <v>2.04</v>
+      </c>
+      <c r="F819">
+        <v>1.08</v>
+      </c>
+      <c r="G819" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B820" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C820" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D820" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E820">
+        <v>1.91</v>
+      </c>
+      <c r="F820">
+        <v>0.96</v>
+      </c>
+      <c r="G820" t="str">
+        <v>202510141335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G809"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G820"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E530"/>
+  <dimension ref="A1:E537"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -9414,17 +9414,136 @@
         <v>202510141335</v>
       </c>
     </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B531" t="str">
+        <v>000333</v>
+      </c>
+      <c r="C531" t="str">
+        <v>美的集团</v>
+      </c>
+      <c r="D531">
+        <v>9.28</v>
+      </c>
+      <c r="E531" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B532" t="str">
+        <v>000831</v>
+      </c>
+      <c r="C532" t="str">
+        <v>中国稀土</v>
+      </c>
+      <c r="D532">
+        <v>2.43</v>
+      </c>
+      <c r="E532" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B533" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C533" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D533">
+        <v>5.17</v>
+      </c>
+      <c r="E533" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B534" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C534" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D534">
+        <v>5.07</v>
+      </c>
+      <c r="E534" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B535" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C535" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D535">
+        <v>2.2</v>
+      </c>
+      <c r="E535" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B536" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C536" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D536">
+        <v>1.9</v>
+      </c>
+      <c r="E536" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B537" t="str">
+        <v>601899</v>
+      </c>
+      <c r="C537" t="str">
+        <v>紫金矿业</v>
+      </c>
+      <c r="D537">
+        <v>1.06</v>
+      </c>
+      <c r="E537" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E530"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E537"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E526"/>
+  <dimension ref="A1:E535"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -18371,17 +18490,170 @@
         <v>202510141335</v>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B527" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C527" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D527">
+        <v>4.91</v>
+      </c>
+      <c r="E527" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B528" t="str">
+        <v>001380</v>
+      </c>
+      <c r="C528" t="str">
+        <v>华纬科技</v>
+      </c>
+      <c r="D528">
+        <v>5.38</v>
+      </c>
+      <c r="E528" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B529" t="str">
+        <v>002074</v>
+      </c>
+      <c r="C529" t="str">
+        <v>国轩高科</v>
+      </c>
+      <c r="D529">
+        <v>4.37</v>
+      </c>
+      <c r="E529" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B530" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C530" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D530">
+        <v>5.98</v>
+      </c>
+      <c r="E530" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B531" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C531" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D531">
+        <v>5.42</v>
+      </c>
+      <c r="E531" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B532" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C532" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D532">
+        <v>1.05</v>
+      </c>
+      <c r="E532" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B533" t="str">
+        <v>601878</v>
+      </c>
+      <c r="C533" t="str">
+        <v>浙商证券</v>
+      </c>
+      <c r="D533">
+        <v>5</v>
+      </c>
+      <c r="E533" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B534" t="str">
+        <v>603119</v>
+      </c>
+      <c r="C534" t="str">
+        <v>浙江荣泰</v>
+      </c>
+      <c r="D534">
+        <v>0.03</v>
+      </c>
+      <c r="E534" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B535" t="str">
+        <v>HK01810</v>
+      </c>
+      <c r="C535" t="str">
+        <v>小米集团-W</v>
+      </c>
+      <c r="D535">
+        <v>0.9</v>
+      </c>
+      <c r="E535" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E526"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E535"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G820"/>
+  <dimension ref="A1:G830"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -37246,10 +37518,240 @@
         <v>202510141335</v>
       </c>
     </row>
+    <row r="821">
+      <c r="A821" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B821" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C821" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D821" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E821">
+        <v>4.96</v>
+      </c>
+      <c r="F821">
+        <v>4.96</v>
+      </c>
+      <c r="G821" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B822" t="str">
+        <v>000831</v>
+      </c>
+      <c r="C822" t="str">
+        <v>中国稀土</v>
+      </c>
+      <c r="D822" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E822">
+        <v>9.86</v>
+      </c>
+      <c r="F822">
+        <v>2.92</v>
+      </c>
+      <c r="G822" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B823" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C823" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D823" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E823">
+        <v>6.13</v>
+      </c>
+      <c r="F823">
+        <v>6.58</v>
+      </c>
+      <c r="G823" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B824" t="str">
+        <v>510050</v>
+      </c>
+      <c r="C824" t="str">
+        <v>上证50ETF</v>
+      </c>
+      <c r="D824" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E824">
+        <v>5.14</v>
+      </c>
+      <c r="F824">
+        <v>1</v>
+      </c>
+      <c r="G824" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B825" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C825" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D825" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E825">
+        <v>5.28</v>
+      </c>
+      <c r="F825">
+        <v>5.3</v>
+      </c>
+      <c r="G825" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B826" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C826" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D826" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E826">
+        <v>5.05</v>
+      </c>
+      <c r="F826">
+        <v>3.23</v>
+      </c>
+      <c r="G826" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B827" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C827" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D827" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E827">
+        <v>0.98</v>
+      </c>
+      <c r="F827">
+        <v>1.02</v>
+      </c>
+      <c r="G827" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B828" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C828" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D828" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E828">
+        <v>5.05</v>
+      </c>
+      <c r="F828">
+        <v>5.01</v>
+      </c>
+      <c r="G828" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B829" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C829" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D829" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E829">
+        <v>2.04</v>
+      </c>
+      <c r="F829">
+        <v>1.06</v>
+      </c>
+      <c r="G829" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B830" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C830" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D830" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E830">
+        <v>1.91</v>
+      </c>
+      <c r="F830">
+        <v>0.96</v>
+      </c>
+      <c r="G830" t="str">
+        <v>202510150949</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G820"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G830"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E537"/>
+  <dimension ref="A1:E543"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -9533,17 +9533,119 @@
         <v>202510150949</v>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B538" t="str">
+        <v>000333</v>
+      </c>
+      <c r="C538" t="str">
+        <v>美的集团</v>
+      </c>
+      <c r="D538">
+        <v>9.28</v>
+      </c>
+      <c r="E538" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B539" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C539" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D539">
+        <v>5.17</v>
+      </c>
+      <c r="E539" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B540" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C540" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D540">
+        <v>5.07</v>
+      </c>
+      <c r="E540" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B541" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C541" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D541">
+        <v>2.2</v>
+      </c>
+      <c r="E541" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B542" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C542" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D542">
+        <v>1.9</v>
+      </c>
+      <c r="E542" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B543" t="str">
+        <v>601899</v>
+      </c>
+      <c r="C543" t="str">
+        <v>紫金矿业</v>
+      </c>
+      <c r="D543">
+        <v>1.06</v>
+      </c>
+      <c r="E543" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E537"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E543"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E535"/>
+  <dimension ref="A1:E544"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -18643,17 +18745,170 @@
         <v>202510150949</v>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B536" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C536" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D536">
+        <v>4.91</v>
+      </c>
+      <c r="E536" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B537" t="str">
+        <v>001380</v>
+      </c>
+      <c r="C537" t="str">
+        <v>华纬科技</v>
+      </c>
+      <c r="D537">
+        <v>5.38</v>
+      </c>
+      <c r="E537" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B538" t="str">
+        <v>002074</v>
+      </c>
+      <c r="C538" t="str">
+        <v>国轩高科</v>
+      </c>
+      <c r="D538">
+        <v>4.37</v>
+      </c>
+      <c r="E538" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B539" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C539" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D539">
+        <v>5.98</v>
+      </c>
+      <c r="E539" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B540" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C540" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D540">
+        <v>5.42</v>
+      </c>
+      <c r="E540" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B541" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C541" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D541">
+        <v>1.05</v>
+      </c>
+      <c r="E541" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B542" t="str">
+        <v>601878</v>
+      </c>
+      <c r="C542" t="str">
+        <v>浙商证券</v>
+      </c>
+      <c r="D542">
+        <v>5</v>
+      </c>
+      <c r="E542" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B543" t="str">
+        <v>603119</v>
+      </c>
+      <c r="C543" t="str">
+        <v>浙江荣泰</v>
+      </c>
+      <c r="D543">
+        <v>0.03</v>
+      </c>
+      <c r="E543" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B544" t="str">
+        <v>HK01810</v>
+      </c>
+      <c r="C544" t="str">
+        <v>小米集团-W</v>
+      </c>
+      <c r="D544">
+        <v>0.9</v>
+      </c>
+      <c r="E544" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E535"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E544"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G830"/>
+  <dimension ref="A1:G839"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -37748,10 +38003,217 @@
         <v>202510150949</v>
       </c>
     </row>
+    <row r="831">
+      <c r="A831" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B831" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C831" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D831" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E831">
+        <v>4.96</v>
+      </c>
+      <c r="F831">
+        <v>4.96</v>
+      </c>
+      <c r="G831" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B832" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C832" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D832" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E832">
+        <v>6.13</v>
+      </c>
+      <c r="F832">
+        <v>6.58</v>
+      </c>
+      <c r="G832" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B833" t="str">
+        <v>510050</v>
+      </c>
+      <c r="C833" t="str">
+        <v>上证50ETF</v>
+      </c>
+      <c r="D833" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E833">
+        <v>5.14</v>
+      </c>
+      <c r="F833">
+        <v>1</v>
+      </c>
+      <c r="G833" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B834" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C834" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D834" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E834">
+        <v>5.28</v>
+      </c>
+      <c r="F834">
+        <v>5.3</v>
+      </c>
+      <c r="G834" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B835" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C835" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D835" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E835">
+        <v>5.05</v>
+      </c>
+      <c r="F835">
+        <v>3.23</v>
+      </c>
+      <c r="G835" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B836" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C836" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D836" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E836">
+        <v>0.98</v>
+      </c>
+      <c r="F836">
+        <v>1.02</v>
+      </c>
+      <c r="G836" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B837" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C837" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D837" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E837">
+        <v>5.05</v>
+      </c>
+      <c r="F837">
+        <v>5.01</v>
+      </c>
+      <c r="G837" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B838" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C838" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D838" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E838">
+        <v>2.04</v>
+      </c>
+      <c r="F838">
+        <v>1.06</v>
+      </c>
+      <c r="G838" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B839" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C839" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D839" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E839">
+        <v>1.91</v>
+      </c>
+      <c r="F839">
+        <v>0.96</v>
+      </c>
+      <c r="G839" t="str">
+        <v>202510151419</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G830"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G839"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E543"/>
+  <dimension ref="A1:E549"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -9635,17 +9635,119 @@
         <v>202510151419</v>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B544" t="str">
+        <v>000333</v>
+      </c>
+      <c r="C544" t="str">
+        <v>美的集团</v>
+      </c>
+      <c r="D544">
+        <v>9.4</v>
+      </c>
+      <c r="E544" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B545" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C545" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D545">
+        <v>5.28</v>
+      </c>
+      <c r="E545" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B546" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C546" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D546">
+        <v>5.19</v>
+      </c>
+      <c r="E546" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B547" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C547" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D547">
+        <v>2.06</v>
+      </c>
+      <c r="E547" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B548" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C548" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D548">
+        <v>1.87</v>
+      </c>
+      <c r="E548" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B549" t="str">
+        <v>601899</v>
+      </c>
+      <c r="C549" t="str">
+        <v>紫金矿业</v>
+      </c>
+      <c r="D549">
+        <v>1.02</v>
+      </c>
+      <c r="E549" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E543"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E549"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E544"/>
+  <dimension ref="A1:E552"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -18898,17 +19000,153 @@
         <v>202510151419</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B545" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C545" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D545">
+        <v>4.83</v>
+      </c>
+      <c r="E545" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B546" t="str">
+        <v>002074</v>
+      </c>
+      <c r="C546" t="str">
+        <v>国轩高科</v>
+      </c>
+      <c r="D546">
+        <v>4.6</v>
+      </c>
+      <c r="E546" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B547" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C547" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D547">
+        <v>6.54</v>
+      </c>
+      <c r="E547" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B548" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C548" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D548">
+        <v>5.78</v>
+      </c>
+      <c r="E548" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B549" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C549" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D549">
+        <v>1.08</v>
+      </c>
+      <c r="E549" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B550" t="str">
+        <v>601878</v>
+      </c>
+      <c r="C550" t="str">
+        <v>浙商证券</v>
+      </c>
+      <c r="D550">
+        <v>4.97</v>
+      </c>
+      <c r="E550" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B551" t="str">
+        <v>603119</v>
+      </c>
+      <c r="C551" t="str">
+        <v>浙江荣泰</v>
+      </c>
+      <c r="D551">
+        <v>0.03</v>
+      </c>
+      <c r="E551" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B552" t="str">
+        <v>HK01810</v>
+      </c>
+      <c r="C552" t="str">
+        <v>小米集团-W</v>
+      </c>
+      <c r="D552">
+        <v>0.81</v>
+      </c>
+      <c r="E552" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E544"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E552"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G839"/>
+  <dimension ref="A1:G848"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -38210,10 +38448,217 @@
         <v>202510151419</v>
       </c>
     </row>
+    <row r="840">
+      <c r="A840" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B840" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C840" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D840" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E840">
+        <v>4.96</v>
+      </c>
+      <c r="F840">
+        <v>4.87</v>
+      </c>
+      <c r="G840" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B841" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C841" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D841" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E841">
+        <v>6.13</v>
+      </c>
+      <c r="F841">
+        <v>7.19</v>
+      </c>
+      <c r="G841" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B842" t="str">
+        <v>510050</v>
+      </c>
+      <c r="C842" t="str">
+        <v>上证50ETF</v>
+      </c>
+      <c r="D842" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E842">
+        <v>5.14</v>
+      </c>
+      <c r="F842">
+        <v>1.01</v>
+      </c>
+      <c r="G842" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B843" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C843" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D843" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E843">
+        <v>5.28</v>
+      </c>
+      <c r="F843">
+        <v>5.36</v>
+      </c>
+      <c r="G843" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B844" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C844" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D844" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E844">
+        <v>5.05</v>
+      </c>
+      <c r="F844">
+        <v>3.44</v>
+      </c>
+      <c r="G844" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B845" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C845" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D845" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E845">
+        <v>0.98</v>
+      </c>
+      <c r="F845">
+        <v>1.05</v>
+      </c>
+      <c r="G845" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B846" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C846" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D846" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E846">
+        <v>5.05</v>
+      </c>
+      <c r="F846">
+        <v>5.08</v>
+      </c>
+      <c r="G846" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B847" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C847" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D847" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E847">
+        <v>2.04</v>
+      </c>
+      <c r="F847">
+        <v>0.99</v>
+      </c>
+      <c r="G847" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B848" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C848" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D848" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E848">
+        <v>1.91</v>
+      </c>
+      <c r="F848">
+        <v>0.93</v>
+      </c>
+      <c r="G848" t="str">
+        <v>202510291303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G839"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G848"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E549"/>
+  <dimension ref="A1:E555"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -9737,17 +9737,119 @@
         <v>202510291303</v>
       </c>
     </row>
+    <row r="550">
+      <c r="A550" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B550" t="str">
+        <v>000333</v>
+      </c>
+      <c r="C550" t="str">
+        <v>美的集团</v>
+      </c>
+      <c r="D550">
+        <v>9.4</v>
+      </c>
+      <c r="E550" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B551" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C551" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D551">
+        <v>5.28</v>
+      </c>
+      <c r="E551" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B552" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C552" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D552">
+        <v>5.19</v>
+      </c>
+      <c r="E552" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B553" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C553" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D553">
+        <v>2.06</v>
+      </c>
+      <c r="E553" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B554" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C554" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D554">
+        <v>1.87</v>
+      </c>
+      <c r="E554" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B555" t="str">
+        <v>601899</v>
+      </c>
+      <c r="C555" t="str">
+        <v>紫金矿业</v>
+      </c>
+      <c r="D555">
+        <v>1.02</v>
+      </c>
+      <c r="E555" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E549"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E555"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E552"/>
+  <dimension ref="A1:E561"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -19136,17 +19238,170 @@
         <v>202510291303</v>
       </c>
     </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B553" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C553" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D553">
+        <v>4.83</v>
+      </c>
+      <c r="E553" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B554" t="str">
+        <v>002074</v>
+      </c>
+      <c r="C554" t="str">
+        <v>国轩高科</v>
+      </c>
+      <c r="D554">
+        <v>4.6</v>
+      </c>
+      <c r="E554" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B555" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C555" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D555">
+        <v>6.54</v>
+      </c>
+      <c r="E555" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B556" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C556" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D556">
+        <v>5.78</v>
+      </c>
+      <c r="E556" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B557" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C557" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D557">
+        <v>1.08</v>
+      </c>
+      <c r="E557" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B558" t="str">
+        <v>601878</v>
+      </c>
+      <c r="C558" t="str">
+        <v>浙商证券</v>
+      </c>
+      <c r="D558">
+        <v>4.97</v>
+      </c>
+      <c r="E558" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B559" t="str">
+        <v>603119</v>
+      </c>
+      <c r="C559" t="str">
+        <v>浙江荣泰</v>
+      </c>
+      <c r="D559">
+        <v>0.03</v>
+      </c>
+      <c r="E559" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B560" t="str">
+        <v>HK01810</v>
+      </c>
+      <c r="C560" t="str">
+        <v>小米集团-W</v>
+      </c>
+      <c r="D560">
+        <v>0.81</v>
+      </c>
+      <c r="E560" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B561" t="str">
+        <v>002463</v>
+      </c>
+      <c r="C561" t="str">
+        <v>沪电股份</v>
+      </c>
+      <c r="D561">
+        <v>2</v>
+      </c>
+      <c r="E561" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E552"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E561"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G848"/>
+  <dimension ref="A1:G857"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -38655,10 +38910,217 @@
         <v>202510291303</v>
       </c>
     </row>
+    <row r="849">
+      <c r="A849" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B849" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C849" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D849" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E849">
+        <v>4.96</v>
+      </c>
+      <c r="F849">
+        <v>4.87</v>
+      </c>
+      <c r="G849" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B850" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C850" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D850" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E850">
+        <v>6.13</v>
+      </c>
+      <c r="F850">
+        <v>7.19</v>
+      </c>
+      <c r="G850" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B851" t="str">
+        <v>510050</v>
+      </c>
+      <c r="C851" t="str">
+        <v>上证50ETF</v>
+      </c>
+      <c r="D851" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E851">
+        <v>5.14</v>
+      </c>
+      <c r="F851">
+        <v>1.01</v>
+      </c>
+      <c r="G851" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B852" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C852" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D852" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E852">
+        <v>5.28</v>
+      </c>
+      <c r="F852">
+        <v>5.36</v>
+      </c>
+      <c r="G852" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B853" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C853" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D853" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E853">
+        <v>5.05</v>
+      </c>
+      <c r="F853">
+        <v>3.44</v>
+      </c>
+      <c r="G853" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B854" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C854" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D854" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E854">
+        <v>0.98</v>
+      </c>
+      <c r="F854">
+        <v>1.05</v>
+      </c>
+      <c r="G854" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B855" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C855" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D855" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E855">
+        <v>5.05</v>
+      </c>
+      <c r="F855">
+        <v>5.08</v>
+      </c>
+      <c r="G855" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B856" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C856" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D856" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E856">
+        <v>2.04</v>
+      </c>
+      <c r="F856">
+        <v>0.99</v>
+      </c>
+      <c r="G856" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B857" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C857" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D857" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E857">
+        <v>1.91</v>
+      </c>
+      <c r="F857">
+        <v>0.93</v>
+      </c>
+      <c r="G857" t="str">
+        <v>202510291313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G848"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G857"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -399,9 +399,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -523,18 +523,120 @@
         <v>202512231844</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B8" t="str">
+        <v>000333</v>
+      </c>
+      <c r="C8" t="str">
+        <v>美的集团</v>
+      </c>
+      <c r="D8">
+        <v>10.03</v>
+      </c>
+      <c r="E8" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B9" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C9" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D9">
+        <v>5.2</v>
+      </c>
+      <c r="E9" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B10" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C10" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D10">
+        <v>5.18</v>
+      </c>
+      <c r="E10" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B11" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C11" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D11">
+        <v>2.19</v>
+      </c>
+      <c r="E11" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B12" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C12" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D12">
+        <v>1.81</v>
+      </c>
+      <c r="E12" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B13" t="str">
+        <v>601899</v>
+      </c>
+      <c r="C13" t="str">
+        <v>紫金矿业</v>
+      </c>
+      <c r="D13">
+        <v>1.19</v>
+      </c>
+      <c r="E13" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E13"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -707,18 +809,188 @@
         <v>202512231844</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B11" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C11" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D11">
+        <v>5.42</v>
+      </c>
+      <c r="E11" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B12" t="str">
+        <v>002074</v>
+      </c>
+      <c r="C12" t="str">
+        <v>国轩高科</v>
+      </c>
+      <c r="D12">
+        <v>4.01</v>
+      </c>
+      <c r="E12" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B13" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C13" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D13">
+        <v>6.48</v>
+      </c>
+      <c r="E13" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B14" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C14" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D14">
+        <v>5.45</v>
+      </c>
+      <c r="E14" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B15" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C15" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D15">
+        <v>1.14</v>
+      </c>
+      <c r="E15" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B16" t="str">
+        <v>601878</v>
+      </c>
+      <c r="C16" t="str">
+        <v>浙商证券</v>
+      </c>
+      <c r="D16">
+        <v>4.74</v>
+      </c>
+      <c r="E16" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B17" t="str">
+        <v>603119</v>
+      </c>
+      <c r="C17" t="str">
+        <v>浙江荣泰</v>
+      </c>
+      <c r="D17">
+        <v>0.04</v>
+      </c>
+      <c r="E17" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B18" t="str">
+        <v>HK01810</v>
+      </c>
+      <c r="C18" t="str">
+        <v>小米集团-W</v>
+      </c>
+      <c r="D18">
+        <v>0.71</v>
+      </c>
+      <c r="E18" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B19" t="str">
+        <v>002463</v>
+      </c>
+      <c r="C19" t="str">
+        <v>沪电股份</v>
+      </c>
+      <c r="D19">
+        <v>1.72</v>
+      </c>
+      <c r="E19" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B20" t="str">
+        <v>HK09660</v>
+      </c>
+      <c r="C20" t="str">
+        <v>地平线机器人-W</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E20"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -951,9 +1223,216 @@
         <v>202512231844</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B11" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C11" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D11" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E11">
+        <v>4.96</v>
+      </c>
+      <c r="F11">
+        <v>5.38</v>
+      </c>
+      <c r="G11" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B12" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C12" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D12" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E12">
+        <v>6.13</v>
+      </c>
+      <c r="F12">
+        <v>7.01</v>
+      </c>
+      <c r="G12" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B13" t="str">
+        <v>510050</v>
+      </c>
+      <c r="C13" t="str">
+        <v>上证50ETF</v>
+      </c>
+      <c r="D13" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E13">
+        <v>5.14</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B14" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C14" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D14" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E14">
+        <v>5.28</v>
+      </c>
+      <c r="F14">
+        <v>5.32</v>
+      </c>
+      <c r="G14" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B15" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C15" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D15" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E15">
+        <v>5.05</v>
+      </c>
+      <c r="F15">
+        <v>3.19</v>
+      </c>
+      <c r="G15" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B16" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C16" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D16" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E16">
+        <v>0.98</v>
+      </c>
+      <c r="F16">
+        <v>1.09</v>
+      </c>
+      <c r="G16" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B17" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C17" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D17" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E17">
+        <v>5.05</v>
+      </c>
+      <c r="F17">
+        <v>5.11</v>
+      </c>
+      <c r="G17" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B18" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C18" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D18" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E18">
+        <v>2.04</v>
+      </c>
+      <c r="F18">
+        <v>1.07</v>
+      </c>
+      <c r="G18" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B19" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C19" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D19" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E19">
+        <v>1.91</v>
+      </c>
+      <c r="F19">
+        <v>0.91</v>
+      </c>
+      <c r="G19" t="str">
+        <v>202601121012</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G19"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -625,16 +625,118 @@
         <v>202601121012</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B14" t="str">
+        <v>000333</v>
+      </c>
+      <c r="C14" t="str">
+        <v>美的集团</v>
+      </c>
+      <c r="D14">
+        <v>10.03</v>
+      </c>
+      <c r="E14" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B15" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C15" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D15">
+        <v>5.2</v>
+      </c>
+      <c r="E15" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B16" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C16" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D16">
+        <v>5.18</v>
+      </c>
+      <c r="E16" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B17" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C17" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D17">
+        <v>2.19</v>
+      </c>
+      <c r="E17" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B18" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C18" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D18">
+        <v>1.81</v>
+      </c>
+      <c r="E18" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B19" t="str">
+        <v>601899</v>
+      </c>
+      <c r="C19" t="str">
+        <v>紫金矿业</v>
+      </c>
+      <c r="D19">
+        <v>1.19</v>
+      </c>
+      <c r="E19" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E19"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -979,16 +1081,186 @@
         <v>202601121012</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B21" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C21" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D21">
+        <v>5.42</v>
+      </c>
+      <c r="E21" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B22" t="str">
+        <v>002074</v>
+      </c>
+      <c r="C22" t="str">
+        <v>国轩高科</v>
+      </c>
+      <c r="D22">
+        <v>4.01</v>
+      </c>
+      <c r="E22" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B23" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C23" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D23">
+        <v>6.48</v>
+      </c>
+      <c r="E23" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B24" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C24" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D24">
+        <v>5.45</v>
+      </c>
+      <c r="E24" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B25" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C25" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D25">
+        <v>1.14</v>
+      </c>
+      <c r="E25" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B26" t="str">
+        <v>601878</v>
+      </c>
+      <c r="C26" t="str">
+        <v>浙商证券</v>
+      </c>
+      <c r="D26">
+        <v>4.74</v>
+      </c>
+      <c r="E26" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B27" t="str">
+        <v>603119</v>
+      </c>
+      <c r="C27" t="str">
+        <v>浙江荣泰</v>
+      </c>
+      <c r="D27">
+        <v>0.04</v>
+      </c>
+      <c r="E27" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B28" t="str">
+        <v>HK01810</v>
+      </c>
+      <c r="C28" t="str">
+        <v>小米集团-W</v>
+      </c>
+      <c r="D28">
+        <v>0.71</v>
+      </c>
+      <c r="E28" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B29" t="str">
+        <v>002463</v>
+      </c>
+      <c r="C29" t="str">
+        <v>沪电股份</v>
+      </c>
+      <c r="D29">
+        <v>1.72</v>
+      </c>
+      <c r="E29" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B30" t="str">
+        <v>HK09660</v>
+      </c>
+      <c r="C30" t="str">
+        <v>地平线机器人-W</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E30"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1430,9 +1702,216 @@
         <v>202601121012</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B20" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C20" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D20" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E20">
+        <v>4.96</v>
+      </c>
+      <c r="F20">
+        <v>5.38</v>
+      </c>
+      <c r="G20" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B21" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C21" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D21" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E21">
+        <v>6.13</v>
+      </c>
+      <c r="F21">
+        <v>7.01</v>
+      </c>
+      <c r="G21" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B22" t="str">
+        <v>510050</v>
+      </c>
+      <c r="C22" t="str">
+        <v>上证50ETF</v>
+      </c>
+      <c r="D22" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E22">
+        <v>5.14</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B23" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C23" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D23" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E23">
+        <v>5.28</v>
+      </c>
+      <c r="F23">
+        <v>5.32</v>
+      </c>
+      <c r="G23" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B24" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C24" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D24" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E24">
+        <v>5.05</v>
+      </c>
+      <c r="F24">
+        <v>3.19</v>
+      </c>
+      <c r="G24" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B25" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C25" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D25" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E25">
+        <v>0.98</v>
+      </c>
+      <c r="F25">
+        <v>1.09</v>
+      </c>
+      <c r="G25" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B26" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C26" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D26" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E26">
+        <v>5.05</v>
+      </c>
+      <c r="F26">
+        <v>5.11</v>
+      </c>
+      <c r="G26" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B27" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C27" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D27" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E27">
+        <v>2.04</v>
+      </c>
+      <c r="F27">
+        <v>1.07</v>
+      </c>
+      <c r="G27" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B28" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C28" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D28" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E28">
+        <v>1.91</v>
+      </c>
+      <c r="F28">
+        <v>0.91</v>
+      </c>
+      <c r="G28" t="str">
+        <v>202601121304</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G28"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -727,16 +727,135 @@
         <v>202601121304</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B20" t="str">
+        <v>000333</v>
+      </c>
+      <c r="C20" t="str">
+        <v>美的集团</v>
+      </c>
+      <c r="D20">
+        <v>10.05</v>
+      </c>
+      <c r="E20" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B21" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C21" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D21">
+        <v>5.2</v>
+      </c>
+      <c r="E21" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B22" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C22" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D22">
+        <v>5.18</v>
+      </c>
+      <c r="E22" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B23" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C23" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D23">
+        <v>2.19</v>
+      </c>
+      <c r="E23" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B24" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C24" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D24">
+        <v>1.82</v>
+      </c>
+      <c r="E24" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B25" t="str">
+        <v>601899</v>
+      </c>
+      <c r="C25" t="str">
+        <v>紫金矿业</v>
+      </c>
+      <c r="D25">
+        <v>1.19</v>
+      </c>
+      <c r="E25" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B26" t="str">
+        <v>600120</v>
+      </c>
+      <c r="C26" t="str">
+        <v>浙江东方</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E26"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1251,16 +1370,186 @@
         <v>202601121304</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B31" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C31" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D31">
+        <v>5.35</v>
+      </c>
+      <c r="E31" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B32" t="str">
+        <v>002074</v>
+      </c>
+      <c r="C32" t="str">
+        <v>国轩高科</v>
+      </c>
+      <c r="D32">
+        <v>3.98</v>
+      </c>
+      <c r="E32" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B33" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C33" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D33">
+        <v>6.44</v>
+      </c>
+      <c r="E33" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B34" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C34" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D34">
+        <v>5.39</v>
+      </c>
+      <c r="E34" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B35" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C35" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D35">
+        <v>1.13</v>
+      </c>
+      <c r="E35" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B36" t="str">
+        <v>601878</v>
+      </c>
+      <c r="C36" t="str">
+        <v>浙商证券</v>
+      </c>
+      <c r="D36">
+        <v>4.71</v>
+      </c>
+      <c r="E36" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B37" t="str">
+        <v>603119</v>
+      </c>
+      <c r="C37" t="str">
+        <v>浙江荣泰</v>
+      </c>
+      <c r="D37">
+        <v>0.04</v>
+      </c>
+      <c r="E37" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B38" t="str">
+        <v>HK01810</v>
+      </c>
+      <c r="C38" t="str">
+        <v>小米集团-W</v>
+      </c>
+      <c r="D38">
+        <v>0.72</v>
+      </c>
+      <c r="E38" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B39" t="str">
+        <v>002463</v>
+      </c>
+      <c r="C39" t="str">
+        <v>沪电股份</v>
+      </c>
+      <c r="D39">
+        <v>1.7</v>
+      </c>
+      <c r="E39" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B40" t="str">
+        <v>HK09660</v>
+      </c>
+      <c r="C40" t="str">
+        <v>地平线机器人-W</v>
+      </c>
+      <c r="D40">
+        <v>20.55</v>
+      </c>
+      <c r="E40" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E40"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1909,9 +2198,216 @@
         <v>202601121304</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B29" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C29" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D29" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E29">
+        <v>4.96</v>
+      </c>
+      <c r="F29">
+        <v>5.35</v>
+      </c>
+      <c r="G29" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B30" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C30" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D30" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E30">
+        <v>6.13</v>
+      </c>
+      <c r="F30">
+        <v>7.01</v>
+      </c>
+      <c r="G30" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B31" t="str">
+        <v>510050</v>
+      </c>
+      <c r="C31" t="str">
+        <v>上证50ETF</v>
+      </c>
+      <c r="D31" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E31">
+        <v>5.14</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B32" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C32" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D32" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E32">
+        <v>5.28</v>
+      </c>
+      <c r="F32">
+        <v>5.32</v>
+      </c>
+      <c r="G32" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B33" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C33" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D33" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E33">
+        <v>5.05</v>
+      </c>
+      <c r="F33">
+        <v>3.17</v>
+      </c>
+      <c r="G33" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B34" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C34" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D34" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E34">
+        <v>0.98</v>
+      </c>
+      <c r="F34">
+        <v>1.09</v>
+      </c>
+      <c r="G34" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B35" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C35" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D35" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E35">
+        <v>5.05</v>
+      </c>
+      <c r="F35">
+        <v>5.11</v>
+      </c>
+      <c r="G35" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B36" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C36" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D36" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E36">
+        <v>2.04</v>
+      </c>
+      <c r="F36">
+        <v>1.07</v>
+      </c>
+      <c r="G36" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B37" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C37" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D37" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E37">
+        <v>1.91</v>
+      </c>
+      <c r="F37">
+        <v>0.91</v>
+      </c>
+      <c r="G37" t="str">
+        <v>202601130953</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G37"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -846,16 +846,135 @@
         <v>202601130953</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B27" t="str">
+        <v>000333</v>
+      </c>
+      <c r="C27" t="str">
+        <v>美的集团</v>
+      </c>
+      <c r="D27">
+        <v>10.05</v>
+      </c>
+      <c r="E27" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B28" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C28" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D28">
+        <v>5.2</v>
+      </c>
+      <c r="E28" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B29" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C29" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D29">
+        <v>5.18</v>
+      </c>
+      <c r="E29" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B30" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C30" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D30">
+        <v>2.19</v>
+      </c>
+      <c r="E30" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B31" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C31" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D31">
+        <v>1.82</v>
+      </c>
+      <c r="E31" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B32" t="str">
+        <v>601899</v>
+      </c>
+      <c r="C32" t="str">
+        <v>紫金矿业</v>
+      </c>
+      <c r="D32">
+        <v>1.19</v>
+      </c>
+      <c r="E32" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B33" t="str">
+        <v>600120</v>
+      </c>
+      <c r="C33" t="str">
+        <v>浙江东方</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E33"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1540,16 +1659,186 @@
         <v>202601130953</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B41" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C41" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D41">
+        <v>5.35</v>
+      </c>
+      <c r="E41" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B42" t="str">
+        <v>002074</v>
+      </c>
+      <c r="C42" t="str">
+        <v>国轩高科</v>
+      </c>
+      <c r="D42">
+        <v>3.98</v>
+      </c>
+      <c r="E42" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B43" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C43" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D43">
+        <v>6.44</v>
+      </c>
+      <c r="E43" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B44" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C44" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D44">
+        <v>5.39</v>
+      </c>
+      <c r="E44" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B45" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C45" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D45">
+        <v>1.13</v>
+      </c>
+      <c r="E45" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B46" t="str">
+        <v>601878</v>
+      </c>
+      <c r="C46" t="str">
+        <v>浙商证券</v>
+      </c>
+      <c r="D46">
+        <v>4.71</v>
+      </c>
+      <c r="E46" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B47" t="str">
+        <v>603119</v>
+      </c>
+      <c r="C47" t="str">
+        <v>浙江荣泰</v>
+      </c>
+      <c r="D47">
+        <v>0.04</v>
+      </c>
+      <c r="E47" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B48" t="str">
+        <v>HK01810</v>
+      </c>
+      <c r="C48" t="str">
+        <v>小米集团-W</v>
+      </c>
+      <c r="D48">
+        <v>0.72</v>
+      </c>
+      <c r="E48" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B49" t="str">
+        <v>002463</v>
+      </c>
+      <c r="C49" t="str">
+        <v>沪电股份</v>
+      </c>
+      <c r="D49">
+        <v>1.7</v>
+      </c>
+      <c r="E49" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B50" t="str">
+        <v>HK09660</v>
+      </c>
+      <c r="C50" t="str">
+        <v>地平线机器人-W</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="E50" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E40"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E50"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2405,9 +2694,216 @@
         <v>202601130953</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B38" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C38" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D38" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E38">
+        <v>4.96</v>
+      </c>
+      <c r="F38">
+        <v>5.35</v>
+      </c>
+      <c r="G38" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B39" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C39" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D39" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E39">
+        <v>6.13</v>
+      </c>
+      <c r="F39">
+        <v>7.01</v>
+      </c>
+      <c r="G39" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B40" t="str">
+        <v>510050</v>
+      </c>
+      <c r="C40" t="str">
+        <v>上证50ETF</v>
+      </c>
+      <c r="D40" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E40">
+        <v>5.14</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B41" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C41" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D41" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E41">
+        <v>5.28</v>
+      </c>
+      <c r="F41">
+        <v>5.32</v>
+      </c>
+      <c r="G41" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B42" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C42" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D42" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E42">
+        <v>5.05</v>
+      </c>
+      <c r="F42">
+        <v>3.17</v>
+      </c>
+      <c r="G42" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B43" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C43" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D43" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E43">
+        <v>0.98</v>
+      </c>
+      <c r="F43">
+        <v>1.09</v>
+      </c>
+      <c r="G43" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B44" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C44" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D44" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E44">
+        <v>5.05</v>
+      </c>
+      <c r="F44">
+        <v>5.11</v>
+      </c>
+      <c r="G44" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B45" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C45" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D45" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E45">
+        <v>2.04</v>
+      </c>
+      <c r="F45">
+        <v>1.07</v>
+      </c>
+      <c r="G45" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B46" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C46" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D46" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E46">
+        <v>1.91</v>
+      </c>
+      <c r="F46">
+        <v>0.91</v>
+      </c>
+      <c r="G46" t="str">
+        <v>202601131327</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G37"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G46"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -965,16 +965,152 @@
         <v>202601131327</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B34" t="str">
+        <v>000333</v>
+      </c>
+      <c r="C34" t="str">
+        <v>美的集团</v>
+      </c>
+      <c r="D34">
+        <v>10.17</v>
+      </c>
+      <c r="E34" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B35" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C35" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D35">
+        <v>5.19</v>
+      </c>
+      <c r="E35" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B36" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C36" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D36">
+        <v>5.11</v>
+      </c>
+      <c r="E36" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B37" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C37" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D37">
+        <v>2.22</v>
+      </c>
+      <c r="E37" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B38" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C38" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D38">
+        <v>1.78</v>
+      </c>
+      <c r="E38" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B39" t="str">
+        <v>601899</v>
+      </c>
+      <c r="C39" t="str">
+        <v>紫金矿业</v>
+      </c>
+      <c r="D39">
+        <v>1.2</v>
+      </c>
+      <c r="E39" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B40" t="str">
+        <v>600120</v>
+      </c>
+      <c r="C40" t="str">
+        <v>浙江东方</v>
+      </c>
+      <c r="D40">
+        <v>9.82</v>
+      </c>
+      <c r="E40" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B41" t="str">
+        <v>159883</v>
+      </c>
+      <c r="C41" t="str">
+        <v>医疗器械ETF</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E41"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1829,16 +1965,186 @@
         <v>202601131327</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B51" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C51" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D51">
+        <v>5.48</v>
+      </c>
+      <c r="E51" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B52" t="str">
+        <v>002074</v>
+      </c>
+      <c r="C52" t="str">
+        <v>国轩高科</v>
+      </c>
+      <c r="D52">
+        <v>4.02</v>
+      </c>
+      <c r="E52" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B53" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C53" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D53">
+        <v>6.5</v>
+      </c>
+      <c r="E53" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B54" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C54" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D54">
+        <v>5.41</v>
+      </c>
+      <c r="E54" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B55" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C55" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D55">
+        <v>1.12</v>
+      </c>
+      <c r="E55" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B56" t="str">
+        <v>601878</v>
+      </c>
+      <c r="C56" t="str">
+        <v>浙商证券</v>
+      </c>
+      <c r="D56">
+        <v>4.68</v>
+      </c>
+      <c r="E56" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B57" t="str">
+        <v>603119</v>
+      </c>
+      <c r="C57" t="str">
+        <v>浙江荣泰</v>
+      </c>
+      <c r="D57">
+        <v>0.04</v>
+      </c>
+      <c r="E57" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B58" t="str">
+        <v>HK01810</v>
+      </c>
+      <c r="C58" t="str">
+        <v>小米集团-W</v>
+      </c>
+      <c r="D58">
+        <v>0.71</v>
+      </c>
+      <c r="E58" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B59" t="str">
+        <v>002463</v>
+      </c>
+      <c r="C59" t="str">
+        <v>沪电股份</v>
+      </c>
+      <c r="D59">
+        <v>1.79</v>
+      </c>
+      <c r="E59" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B60" t="str">
+        <v>HK09660</v>
+      </c>
+      <c r="C60" t="str">
+        <v>地平线机器人-W</v>
+      </c>
+      <c r="D60">
+        <v>14.81</v>
+      </c>
+      <c r="E60" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E60"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2901,9 +3207,216 @@
         <v>202601131327</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B47" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C47" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D47" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E47">
+        <v>4.96</v>
+      </c>
+      <c r="F47">
+        <v>5.49</v>
+      </c>
+      <c r="G47" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B48" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C48" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D48" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E48">
+        <v>6.13</v>
+      </c>
+      <c r="F48">
+        <v>7.08</v>
+      </c>
+      <c r="G48" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B49" t="str">
+        <v>510050</v>
+      </c>
+      <c r="C49" t="str">
+        <v>上证50ETF</v>
+      </c>
+      <c r="D49" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E49">
+        <v>5.14</v>
+      </c>
+      <c r="F49">
+        <v>0.99</v>
+      </c>
+      <c r="G49" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B50" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C50" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D50" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E50">
+        <v>5.28</v>
+      </c>
+      <c r="F50">
+        <v>5.29</v>
+      </c>
+      <c r="G50" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B51" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C51" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D51" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E51">
+        <v>5.05</v>
+      </c>
+      <c r="F51">
+        <v>3.18</v>
+      </c>
+      <c r="G51" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B52" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C52" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D52" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E52">
+        <v>0.98</v>
+      </c>
+      <c r="F52">
+        <v>1.08</v>
+      </c>
+      <c r="G52" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B53" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C53" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D53" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E53">
+        <v>5.05</v>
+      </c>
+      <c r="F53">
+        <v>5.02</v>
+      </c>
+      <c r="G53" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B54" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C54" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D54" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E54">
+        <v>2.04</v>
+      </c>
+      <c r="F54">
+        <v>1.08</v>
+      </c>
+      <c r="G54" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B55" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C55" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D55" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E55">
+        <v>1.91</v>
+      </c>
+      <c r="F55">
+        <v>0.88</v>
+      </c>
+      <c r="G55" t="str">
+        <v>202601151325</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G55"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/AIPEPortfolio.xlsx
+++ b/data/AIPEPortfolio.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1101,16 +1101,152 @@
         <v>202601151325</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B42" t="str">
+        <v>000333</v>
+      </c>
+      <c r="C42" t="str">
+        <v>美的集团</v>
+      </c>
+      <c r="D42">
+        <v>10.17</v>
+      </c>
+      <c r="E42" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B43" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C43" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D43">
+        <v>5.19</v>
+      </c>
+      <c r="E43" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B44" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C44" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D44">
+        <v>5.11</v>
+      </c>
+      <c r="E44" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B45" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C45" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D45">
+        <v>2.22</v>
+      </c>
+      <c r="E45" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B46" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C46" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D46">
+        <v>1.78</v>
+      </c>
+      <c r="E46" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B47" t="str">
+        <v>601899</v>
+      </c>
+      <c r="C47" t="str">
+        <v>紫金矿业</v>
+      </c>
+      <c r="D47">
+        <v>1.2</v>
+      </c>
+      <c r="E47" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B48" t="str">
+        <v>600120</v>
+      </c>
+      <c r="C48" t="str">
+        <v>浙江东方</v>
+      </c>
+      <c r="D48">
+        <v>9.82</v>
+      </c>
+      <c r="E48" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>大智 (稳健智远)</v>
+      </c>
+      <c r="B49" t="str">
+        <v>159883</v>
+      </c>
+      <c r="C49" t="str">
+        <v>医疗器械ETF</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E49"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2135,16 +2271,186 @@
         <v>202601151325</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B61" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C61" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D61">
+        <v>5.48</v>
+      </c>
+      <c r="E61" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B62" t="str">
+        <v>002074</v>
+      </c>
+      <c r="C62" t="str">
+        <v>国轩高科</v>
+      </c>
+      <c r="D62">
+        <v>4.02</v>
+      </c>
+      <c r="E62" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B63" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C63" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D63">
+        <v>6.5</v>
+      </c>
+      <c r="E63" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B64" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C64" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D64">
+        <v>5.41</v>
+      </c>
+      <c r="E64" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B65" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C65" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D65">
+        <v>1.12</v>
+      </c>
+      <c r="E65" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B66" t="str">
+        <v>601878</v>
+      </c>
+      <c r="C66" t="str">
+        <v>浙商证券</v>
+      </c>
+      <c r="D66">
+        <v>4.68</v>
+      </c>
+      <c r="E66" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B67" t="str">
+        <v>603119</v>
+      </c>
+      <c r="C67" t="str">
+        <v>浙江荣泰</v>
+      </c>
+      <c r="D67">
+        <v>0.04</v>
+      </c>
+      <c r="E67" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B68" t="str">
+        <v>HK01810</v>
+      </c>
+      <c r="C68" t="str">
+        <v>小米集团-W</v>
+      </c>
+      <c r="D68">
+        <v>0.71</v>
+      </c>
+      <c r="E68" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B69" t="str">
+        <v>002463</v>
+      </c>
+      <c r="C69" t="str">
+        <v>沪电股份</v>
+      </c>
+      <c r="D69">
+        <v>1.79</v>
+      </c>
+      <c r="E69" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>大成 (锐进先锋)</v>
+      </c>
+      <c r="B70" t="str">
+        <v>HK09660</v>
+      </c>
+      <c r="C70" t="str">
+        <v>地平线机器人-W</v>
+      </c>
+      <c r="D70">
+        <v>14.81</v>
+      </c>
+      <c r="E70" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E60"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E70"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -3414,9 +3720,239 @@
         <v>202601151325</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B56" t="str">
+        <v>000725</v>
+      </c>
+      <c r="C56" t="str">
+        <v>京东方A</v>
+      </c>
+      <c r="D56" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E56">
+        <v>5.48</v>
+      </c>
+      <c r="F56">
+        <v>5.49</v>
+      </c>
+      <c r="G56" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B57" t="str">
+        <v>159781</v>
+      </c>
+      <c r="C57" t="str">
+        <v>科创创业ETF</v>
+      </c>
+      <c r="D57" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E57">
+        <v>6.5</v>
+      </c>
+      <c r="F57">
+        <v>7.08</v>
+      </c>
+      <c r="G57" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B58" t="str">
+        <v>510050</v>
+      </c>
+      <c r="C58" t="str">
+        <v>上证50ETF</v>
+      </c>
+      <c r="D58" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E58">
+        <v>5.14</v>
+      </c>
+      <c r="F58">
+        <v>0.99</v>
+      </c>
+      <c r="G58" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B59" t="str">
+        <v>510300</v>
+      </c>
+      <c r="C59" t="str">
+        <v>沪深300ETF</v>
+      </c>
+      <c r="D59" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E59">
+        <v>5.19</v>
+      </c>
+      <c r="F59">
+        <v>5.29</v>
+      </c>
+      <c r="G59" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B60" t="str">
+        <v>513100</v>
+      </c>
+      <c r="C60" t="str">
+        <v>纳指ETF</v>
+      </c>
+      <c r="D60" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E60">
+        <v>5.41</v>
+      </c>
+      <c r="F60">
+        <v>3.18</v>
+      </c>
+      <c r="G60" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B61" t="str">
+        <v>513290</v>
+      </c>
+      <c r="C61" t="str">
+        <v>纳指生物科技ETF</v>
+      </c>
+      <c r="D61" t="str">
+        <v>大成</v>
+      </c>
+      <c r="E61">
+        <v>1.12</v>
+      </c>
+      <c r="F61">
+        <v>1.08</v>
+      </c>
+      <c r="G61" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B62" t="str">
+        <v>513400</v>
+      </c>
+      <c r="C62" t="str">
+        <v>道琼斯ETF</v>
+      </c>
+      <c r="D62" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E62">
+        <v>5.11</v>
+      </c>
+      <c r="F62">
+        <v>5.02</v>
+      </c>
+      <c r="G62" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B63" t="str">
+        <v>518880</v>
+      </c>
+      <c r="C63" t="str">
+        <v>黄金ETF</v>
+      </c>
+      <c r="D63" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E63">
+        <v>2.22</v>
+      </c>
+      <c r="F63">
+        <v>1.08</v>
+      </c>
+      <c r="G63" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B64" t="str">
+        <v>600085</v>
+      </c>
+      <c r="C64" t="str">
+        <v>同仁堂</v>
+      </c>
+      <c r="D64" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E64">
+        <v>1.78</v>
+      </c>
+      <c r="F64">
+        <v>0.88</v>
+      </c>
+      <c r="G64" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>范式进化投资组合</v>
+      </c>
+      <c r="B65" t="str">
+        <v>159883</v>
+      </c>
+      <c r="C65" t="str">
+        <v>医疗器械ETF</v>
+      </c>
+      <c r="D65" t="str">
+        <v>大智</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65" t="str">
+        <v>202601151326</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G55"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G65"/>
   </ignoredErrors>
 </worksheet>
 </file>